--- a/Code/Results/Cases/Case_5_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9896893079077408</v>
+        <v>1.008431341869476</v>
       </c>
       <c r="D2">
-        <v>1.009780608461903</v>
+        <v>1.028774863939716</v>
       </c>
       <c r="E2">
-        <v>0.9984914078630927</v>
+        <v>1.013096765232396</v>
       </c>
       <c r="F2">
-        <v>1.003374089746456</v>
+        <v>1.028967161694867</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041652810542891</v>
+        <v>1.050666099233747</v>
       </c>
       <c r="J2">
-        <v>1.01218284511222</v>
+        <v>1.030362764530456</v>
       </c>
       <c r="K2">
-        <v>1.021105345022354</v>
+        <v>1.039847362368897</v>
       </c>
       <c r="L2">
-        <v>1.009971799858175</v>
+        <v>1.024376607510865</v>
       </c>
       <c r="M2">
-        <v>1.014786617435598</v>
+        <v>1.040037166077808</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9977026758413005</v>
+        <v>1.015404891329861</v>
       </c>
       <c r="D3">
-        <v>1.015713797724518</v>
+        <v>1.034390146212134</v>
       </c>
       <c r="E3">
-        <v>1.005308136963287</v>
+        <v>1.018908198893795</v>
       </c>
       <c r="F3">
-        <v>1.011117345783469</v>
+        <v>1.035408287459783</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044390340273222</v>
+        <v>1.053225552439507</v>
       </c>
       <c r="J3">
-        <v>1.018256164754725</v>
+        <v>1.035484234667482</v>
       </c>
       <c r="K3">
-        <v>1.026149489342856</v>
+        <v>1.044601124359879</v>
       </c>
       <c r="L3">
-        <v>1.015873546752655</v>
+        <v>1.029304729643902</v>
       </c>
       <c r="M3">
-        <v>1.021609927156814</v>
+        <v>1.045607303797748</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002718976309239</v>
+        <v>1.019789039113808</v>
       </c>
       <c r="D4">
-        <v>1.019429741571505</v>
+        <v>1.037922452750508</v>
       </c>
       <c r="E4">
-        <v>1.009581142533777</v>
+        <v>1.022567140008378</v>
       </c>
       <c r="F4">
-        <v>1.015971580334934</v>
+        <v>1.039463675938997</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046088196734907</v>
+        <v>1.054820506831796</v>
       </c>
       <c r="J4">
-        <v>1.022053385195383</v>
+        <v>1.03869973651892</v>
       </c>
       <c r="K4">
-        <v>1.029299188732916</v>
+        <v>1.0475837567655</v>
       </c>
       <c r="L4">
-        <v>1.019565290760309</v>
+        <v>1.032400620312457</v>
       </c>
       <c r="M4">
-        <v>1.025880989611887</v>
+        <v>1.049108043620847</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004789849925341</v>
+        <v>1.021603054459884</v>
       </c>
       <c r="D5">
-        <v>1.020964088038664</v>
+        <v>1.039384410557024</v>
       </c>
       <c r="E5">
-        <v>1.01134644597073</v>
+        <v>1.024082301138961</v>
       </c>
       <c r="F5">
-        <v>1.017977151618417</v>
+        <v>1.041143014144861</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04678524810069</v>
+        <v>1.055476995435578</v>
       </c>
       <c r="J5">
-        <v>1.023619800144331</v>
+        <v>1.040029118824036</v>
       </c>
       <c r="K5">
-        <v>1.030597484659915</v>
+        <v>1.048816365328033</v>
       </c>
       <c r="L5">
-        <v>1.021088616065313</v>
+        <v>1.033680970937015</v>
       </c>
       <c r="M5">
-        <v>1.02764405878358</v>
+        <v>1.050556193579236</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005135398694297</v>
+        <v>1.021905974872861</v>
       </c>
       <c r="D6">
-        <v>1.02122012482826</v>
+        <v>1.039628562582371</v>
       </c>
       <c r="E6">
-        <v>1.011641079458016</v>
+        <v>1.024335385227629</v>
       </c>
       <c r="F6">
-        <v>1.018311896009873</v>
+        <v>1.04142352232213</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046901329022427</v>
+        <v>1.055586417081166</v>
       </c>
       <c r="J6">
-        <v>1.023881102277246</v>
+        <v>1.04025104535361</v>
       </c>
       <c r="K6">
-        <v>1.030814000254065</v>
+        <v>1.049022106654116</v>
       </c>
       <c r="L6">
-        <v>1.021342754690985</v>
+        <v>1.033894736555954</v>
       </c>
       <c r="M6">
-        <v>1.027938235834461</v>
+        <v>1.050797996432521</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002746793582529</v>
+        <v>1.019813390302831</v>
       </c>
       <c r="D7">
-        <v>1.019450350872759</v>
+        <v>1.03794207645926</v>
       </c>
       <c r="E7">
-        <v>1.009604850247807</v>
+        <v>1.022587474711008</v>
       </c>
       <c r="F7">
-        <v>1.015998514180013</v>
+        <v>1.039486213981623</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046097575404525</v>
+        <v>1.0548293332125</v>
       </c>
       <c r="J7">
-        <v>1.022074431063566</v>
+        <v>1.038717586408939</v>
       </c>
       <c r="K7">
-        <v>1.029316636266742</v>
+        <v>1.047600309251545</v>
       </c>
       <c r="L7">
-        <v>1.019585756033208</v>
+        <v>1.032417810195742</v>
       </c>
       <c r="M7">
-        <v>1.025904672957303</v>
+        <v>1.04912748490596</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9924339829284249</v>
+        <v>1.010815643034884</v>
       </c>
       <c r="D8">
-        <v>1.011812323926119</v>
+        <v>1.030694268148819</v>
       </c>
       <c r="E8">
-        <v>1.000824926569993</v>
+        <v>1.015082541501855</v>
       </c>
       <c r="F8">
-        <v>1.006024710358956</v>
+        <v>1.03116811536656</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042593742196212</v>
+        <v>1.051544133870329</v>
       </c>
       <c r="J8">
-        <v>1.01426395913062</v>
+        <v>1.032114691671146</v>
       </c>
       <c r="K8">
-        <v>1.02283463217663</v>
+        <v>1.041473917776067</v>
       </c>
       <c r="L8">
-        <v>1.011993735284081</v>
+        <v>1.026062013545556</v>
       </c>
       <c r="M8">
-        <v>1.017123686896881</v>
+        <v>1.041941817978016</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9728441298828123</v>
+        <v>0.9938987932135858</v>
       </c>
       <c r="D9">
-        <v>0.9973255421538315</v>
+        <v>1.017089070999448</v>
       </c>
       <c r="E9">
-        <v>0.9841998917572102</v>
+        <v>1.00102031419832</v>
       </c>
       <c r="F9">
-        <v>0.9871406181252943</v>
+        <v>1.015581502015294</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035812657519438</v>
+        <v>1.045256112722995</v>
       </c>
       <c r="J9">
-        <v>0.9993936728347677</v>
+        <v>1.019668855848479</v>
       </c>
       <c r="K9">
-        <v>1.010462160115426</v>
+        <v>1.029910843564648</v>
       </c>
       <c r="L9">
-        <v>0.9975546241153794</v>
+        <v>1.014096859178187</v>
       </c>
       <c r="M9">
-        <v>1.000445833250238</v>
+        <v>1.028426739159086</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.958632289661578</v>
+        <v>0.9817823873149132</v>
       </c>
       <c r="D10">
-        <v>0.986842680489817</v>
+        <v>1.007366674233201</v>
       </c>
       <c r="E10">
-        <v>0.972184398458117</v>
+        <v>0.9909878777660671</v>
       </c>
       <c r="F10">
-        <v>0.9734902487103997</v>
+        <v>1.004460047060623</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030813619350408</v>
+        <v>1.040680983986098</v>
       </c>
       <c r="J10">
-        <v>0.9885890840672752</v>
+        <v>1.010737918792889</v>
       </c>
       <c r="K10">
-        <v>1.001453628641832</v>
+        <v>1.021604182866053</v>
       </c>
       <c r="L10">
-        <v>0.9870747142380183</v>
+        <v>1.005521777908436</v>
       </c>
       <c r="M10">
-        <v>0.9883552293053043</v>
+        <v>1.018749238220279</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9521514626231763</v>
+        <v>0.9763045812210552</v>
       </c>
       <c r="D11">
-        <v>0.9820717946797485</v>
+        <v>1.002978327433623</v>
       </c>
       <c r="E11">
-        <v>0.9667184060761513</v>
+        <v>0.9864633099056873</v>
       </c>
       <c r="F11">
-        <v>0.9672791537913715</v>
+        <v>0.9994437410897434</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028516642544639</v>
+        <v>1.03859672311547</v>
       </c>
       <c r="J11">
-        <v>0.9836597653823407</v>
+        <v>1.006697456797264</v>
       </c>
       <c r="K11">
-        <v>0.9973399200244419</v>
+        <v>1.017844294584702</v>
       </c>
       <c r="L11">
-        <v>0.9822964946593365</v>
+        <v>1.001645104575875</v>
       </c>
       <c r="M11">
-        <v>0.9828456931793023</v>
+        <v>1.014376155268662</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9496896198726662</v>
+        <v>0.9742319564330256</v>
       </c>
       <c r="D12">
-        <v>0.9802612252106747</v>
+        <v>1.001319170129349</v>
       </c>
       <c r="E12">
-        <v>0.9646443007497244</v>
+        <v>0.9847531891277437</v>
       </c>
       <c r="F12">
-        <v>0.9649220228113488</v>
+        <v>0.9975476480552987</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027641650313079</v>
+        <v>1.037805830015452</v>
       </c>
       <c r="J12">
-        <v>0.9817871175418379</v>
+        <v>1.005168369879771</v>
       </c>
       <c r="K12">
-        <v>0.9957766178587519</v>
+        <v>1.016421140486212</v>
       </c>
       <c r="L12">
-        <v>0.980481722891358</v>
+        <v>1.000178441888103</v>
       </c>
       <c r="M12">
-        <v>0.9807535977147323</v>
+        <v>1.012721982556205</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9502202599839413</v>
+        <v>0.9746783128624695</v>
       </c>
       <c r="D13">
-        <v>0.9806514029181479</v>
+        <v>1.00167642344876</v>
       </c>
       <c r="E13">
-        <v>0.9650912604927472</v>
+        <v>0.9851213919967238</v>
       </c>
       <c r="F13">
-        <v>0.9654299878672773</v>
+        <v>0.9979558977747877</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027830359120248</v>
+        <v>1.037976256136617</v>
       </c>
       <c r="J13">
-        <v>0.9821907638020728</v>
+        <v>1.005497682936993</v>
       </c>
       <c r="K13">
-        <v>0.9961136067729567</v>
+        <v>1.016727649933348</v>
       </c>
       <c r="L13">
-        <v>0.9808728722205898</v>
+        <v>1.000494290728306</v>
       </c>
       <c r="M13">
-        <v>0.9812045014582735</v>
+        <v>1.013078198681644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9519491138019328</v>
+        <v>0.9761340507855777</v>
       </c>
       <c r="D14">
-        <v>0.9819229398164898</v>
+        <v>1.002841789602718</v>
       </c>
       <c r="E14">
-        <v>0.9665478801442549</v>
+        <v>0.9863225672904431</v>
       </c>
       <c r="F14">
-        <v>0.9670853648849465</v>
+        <v>0.9992876954347559</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028444772053624</v>
+        <v>1.038531695906148</v>
       </c>
       <c r="J14">
-        <v>0.9835058472598222</v>
+        <v>1.006571652832843</v>
       </c>
       <c r="K14">
-        <v>0.9972114376951876</v>
+        <v>1.017727210982632</v>
       </c>
       <c r="L14">
-        <v>0.9821473237719258</v>
+        <v>1.001524427465007</v>
       </c>
       <c r="M14">
-        <v>0.9826737182489045</v>
+        <v>1.014240043804065</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9530069085351563</v>
+        <v>0.9770258521591368</v>
       </c>
       <c r="D15">
-        <v>0.982701162506184</v>
+        <v>1.003555876143752</v>
       </c>
       <c r="E15">
-        <v>0.9674394104623417</v>
+        <v>0.9870586664681406</v>
       </c>
       <c r="F15">
-        <v>0.9680985044860402</v>
+        <v>1.000103826421686</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028820382373588</v>
+        <v>1.038871668584829</v>
       </c>
       <c r="J15">
-        <v>0.9843104607992211</v>
+        <v>1.007229542100697</v>
       </c>
       <c r="K15">
-        <v>0.9978830644781613</v>
+        <v>1.018339487380777</v>
       </c>
       <c r="L15">
-        <v>0.9829271403235793</v>
+        <v>1.002155523939923</v>
       </c>
       <c r="M15">
-        <v>0.983572764175049</v>
+        <v>1.01495186827642</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9590550652390578</v>
+        <v>0.9821407957884406</v>
       </c>
       <c r="D16">
-        <v>0.9871541281421148</v>
+        <v>1.007653962590321</v>
       </c>
       <c r="E16">
-        <v>0.9725412647640486</v>
+        <v>0.9912841594561557</v>
       </c>
       <c r="F16">
-        <v>0.9738957263204263</v>
+        <v>1.00478851486817</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03096311714111</v>
+        <v>1.04081703593999</v>
       </c>
       <c r="J16">
-        <v>0.9889106144300972</v>
+        <v>1.011002234320312</v>
       </c>
       <c r="K16">
-        <v>1.001721885311566</v>
+        <v>1.021850108125001</v>
       </c>
       <c r="L16">
-        <v>0.9873864521553575</v>
+        <v>1.005775438291966</v>
       </c>
       <c r="M16">
-        <v>0.988714740194292</v>
+        <v>1.019035420840618</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9627577761773776</v>
+        <v>0.985285214743773</v>
       </c>
       <c r="D17">
-        <v>0.9898829138660236</v>
+        <v>1.010175249520025</v>
       </c>
       <c r="E17">
-        <v>0.975668251852237</v>
+        <v>0.9938847913932473</v>
       </c>
       <c r="F17">
-        <v>0.9774484986143125</v>
+        <v>1.007671592434711</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032270502474563</v>
+        <v>1.042008880139475</v>
       </c>
       <c r="J17">
-        <v>0.9917263742761444</v>
+        <v>1.013320845524466</v>
       </c>
       <c r="K17">
-        <v>1.0040706885018</v>
+        <v>1.024007191301793</v>
       </c>
       <c r="L17">
-        <v>0.990116792670646</v>
+        <v>1.008000898728903</v>
       </c>
       <c r="M17">
-        <v>0.9918638390357909</v>
+        <v>1.021546434738516</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9648863626284951</v>
+        <v>0.9870972156093076</v>
       </c>
       <c r="D18">
-        <v>0.9914524814884754</v>
+        <v>1.01162882263819</v>
       </c>
       <c r="E18">
-        <v>0.9774670937386147</v>
+        <v>0.9953844599261994</v>
       </c>
       <c r="F18">
-        <v>0.9794921562072043</v>
+        <v>1.009334080174772</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033020450344941</v>
+        <v>1.042694193799074</v>
       </c>
       <c r="J18">
-        <v>0.9933448543672295</v>
+        <v>1.014656695648577</v>
       </c>
       <c r="K18">
-        <v>1.005420405582185</v>
+        <v>1.025249801732609</v>
       </c>
       <c r="L18">
-        <v>0.9916864502827546</v>
+        <v>1.009283342065754</v>
       </c>
       <c r="M18">
-        <v>0.9936745271780608</v>
+        <v>1.022993617117327</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9656070253617798</v>
+        <v>0.9877114050134055</v>
       </c>
       <c r="D19">
-        <v>0.9919840188255662</v>
+        <v>1.012121627222891</v>
       </c>
       <c r="E19">
-        <v>0.9780763176833231</v>
+        <v>0.9958929523925802</v>
       </c>
       <c r="F19">
-        <v>0.9801842747239898</v>
+        <v>1.009897771132111</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033274074626809</v>
+        <v>1.042926228276736</v>
       </c>
       <c r="J19">
-        <v>0.9938927710816565</v>
+        <v>1.015109441478472</v>
       </c>
       <c r="K19">
-        <v>1.005877273074697</v>
+        <v>1.025670915997621</v>
       </c>
       <c r="L19">
-        <v>0.9922178848311783</v>
+        <v>1.00971803107366</v>
       </c>
       <c r="M19">
-        <v>0.9942876165405609</v>
+        <v>1.023484176626018</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9623637682067306</v>
+        <v>0.984950154423802</v>
       </c>
       <c r="D20">
-        <v>0.9895924500640879</v>
+        <v>1.009906518790779</v>
       </c>
       <c r="E20">
-        <v>0.9753353782043278</v>
+        <v>0.9936075673189171</v>
       </c>
       <c r="F20">
-        <v>0.977070312687788</v>
+        <v>1.00736426584514</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032131551432035</v>
+        <v>1.041882035544404</v>
       </c>
       <c r="J20">
-        <v>0.991426769408928</v>
+        <v>1.013073808347289</v>
       </c>
       <c r="K20">
-        <v>1.003820806101028</v>
+        <v>1.023777382322993</v>
       </c>
       <c r="L20">
-        <v>0.9898262477792772</v>
+        <v>1.007763759042103</v>
       </c>
       <c r="M20">
-        <v>0.9915287028059642</v>
+        <v>1.021278847833429</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9514415640240826</v>
+        <v>0.9757064465810291</v>
       </c>
       <c r="D21">
-        <v>0.9815495972862073</v>
+        <v>1.002499442448673</v>
       </c>
       <c r="E21">
-        <v>0.9661201882608984</v>
+        <v>0.9859696859059431</v>
       </c>
       <c r="F21">
-        <v>0.9665993227122196</v>
+        <v>0.998896443112405</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028264461132777</v>
+        <v>1.038368604282561</v>
       </c>
       <c r="J21">
-        <v>0.9831197736697982</v>
+        <v>1.006256195505877</v>
       </c>
       <c r="K21">
-        <v>0.9968891569633893</v>
+        <v>1.017433616345903</v>
       </c>
       <c r="L21">
-        <v>0.9817731654012126</v>
+        <v>1.001221833018763</v>
       </c>
       <c r="M21">
-        <v>0.9822423683791333</v>
+        <v>1.013898752922254</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9442552234082935</v>
+        <v>0.9696732722126153</v>
       </c>
       <c r="D22">
-        <v>0.976268044296799</v>
+        <v>0.9976724210607564</v>
       </c>
       <c r="E22">
-        <v>0.9600702505391487</v>
+        <v>0.9809953962310807</v>
       </c>
       <c r="F22">
-        <v>0.9597231693075337</v>
+        <v>0.9933809656123307</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025705810072819</v>
+        <v>1.03606220907553</v>
       </c>
       <c r="J22">
-        <v>0.9776532350633829</v>
+        <v>1.001804754649422</v>
       </c>
       <c r="K22">
-        <v>0.9923247655928766</v>
+        <v>1.013290129193092</v>
       </c>
       <c r="L22">
-        <v>0.97647651111776</v>
+        <v>0.9969529789799881</v>
       </c>
       <c r="M22">
-        <v>0.9761370914924872</v>
+        <v>1.009084697225925</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9480971407500196</v>
+        <v>0.9728937138249946</v>
       </c>
       <c r="D23">
-        <v>0.9790905598249879</v>
+        <v>1.000248270149055</v>
       </c>
       <c r="E23">
-        <v>0.9633032994778425</v>
+        <v>0.983649544320545</v>
       </c>
       <c r="F23">
-        <v>0.9633979389935601</v>
+        <v>0.9963239489756121</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027074979021091</v>
+        <v>1.037294542365292</v>
       </c>
       <c r="J23">
-        <v>0.9805757431733029</v>
+        <v>1.00418100513118</v>
       </c>
       <c r="K23">
-        <v>0.9947652189933049</v>
+        <v>1.015502112862682</v>
       </c>
       <c r="L23">
-        <v>0.9793079245427969</v>
+        <v>0.999231512355924</v>
       </c>
       <c r="M23">
-        <v>0.9794005433176832</v>
+        <v>1.011654073486317</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9625418992855483</v>
+        <v>0.9851016217758171</v>
       </c>
       <c r="D24">
-        <v>0.9897237661402796</v>
+        <v>1.010027999160943</v>
       </c>
       <c r="E24">
-        <v>0.9754858666585887</v>
+        <v>0.9937328860333503</v>
       </c>
       <c r="F24">
-        <v>0.9772412866928288</v>
+        <v>1.007503192522876</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032194376310028</v>
+        <v>1.041939381565681</v>
       </c>
       <c r="J24">
-        <v>0.9915622215310348</v>
+        <v>1.013185484812684</v>
       </c>
       <c r="K24">
-        <v>1.00393377969199</v>
+        <v>1.023881271101192</v>
       </c>
       <c r="L24">
-        <v>0.9899576030070572</v>
+        <v>1.007870960404081</v>
       </c>
       <c r="M24">
-        <v>0.9916802168600821</v>
+        <v>1.021399812586304</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9780954330259913</v>
+        <v>0.998410034561365</v>
       </c>
       <c r="D25">
-        <v>1.001205258219376</v>
+        <v>1.020713989795563</v>
       </c>
       <c r="E25">
-        <v>0.9886494598566884</v>
+        <v>1.004764114134421</v>
       </c>
       <c r="F25">
-        <v>0.9921949244614624</v>
+        <v>1.019731317827222</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037644333512866</v>
+        <v>1.046945449797925</v>
       </c>
       <c r="J25">
-        <v>1.003383148622059</v>
+        <v>1.022991026119117</v>
       </c>
       <c r="K25">
-        <v>1.013784892874762</v>
+        <v>1.032999037863987</v>
       </c>
       <c r="L25">
-        <v>1.001426571507909</v>
+        <v>1.017288920817917</v>
       </c>
       <c r="M25">
-        <v>1.004915624714593</v>
+        <v>1.032030861958694</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008431341869476</v>
+        <v>0.981219185531403</v>
       </c>
       <c r="D2">
-        <v>1.028774863939716</v>
+        <v>1.00339773120742</v>
       </c>
       <c r="E2">
-        <v>1.013096765232396</v>
+        <v>0.9902698399844028</v>
       </c>
       <c r="F2">
-        <v>1.028967161694867</v>
+        <v>0.957048757312301</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050666099233747</v>
+        <v>1.038241170009569</v>
       </c>
       <c r="J2">
-        <v>1.030362764530456</v>
+        <v>1.00397651460739</v>
       </c>
       <c r="K2">
-        <v>1.039847362368897</v>
+        <v>1.014809932330033</v>
       </c>
       <c r="L2">
-        <v>1.024376607510865</v>
+        <v>1.001866416718737</v>
       </c>
       <c r="M2">
-        <v>1.040037166077808</v>
+        <v>0.9691407761885011</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015404891329861</v>
+        <v>0.9863286145925536</v>
       </c>
       <c r="D3">
-        <v>1.034390146212134</v>
+        <v>1.007045215774489</v>
       </c>
       <c r="E3">
-        <v>1.018908198893795</v>
+        <v>0.9943621624685889</v>
       </c>
       <c r="F3">
-        <v>1.035408287459783</v>
+        <v>0.9649698911699085</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053225552439507</v>
+        <v>1.039588054810882</v>
       </c>
       <c r="J3">
-        <v>1.035484234667482</v>
+        <v>1.007199043169476</v>
       </c>
       <c r="K3">
-        <v>1.044601124359879</v>
+        <v>1.017588738465096</v>
       </c>
       <c r="L3">
-        <v>1.029304729643902</v>
+        <v>1.00506769238984</v>
       </c>
       <c r="M3">
-        <v>1.045607303797748</v>
+        <v>0.9760715179736811</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019789039113808</v>
+        <v>0.9895509374847767</v>
       </c>
       <c r="D4">
-        <v>1.037922452750508</v>
+        <v>1.009345041991923</v>
       </c>
       <c r="E4">
-        <v>1.022567140008378</v>
+        <v>0.9969493466652879</v>
       </c>
       <c r="F4">
-        <v>1.039463675938997</v>
+        <v>0.9699511694690508</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054820506831796</v>
+        <v>1.040420420289405</v>
       </c>
       <c r="J4">
-        <v>1.03869973651892</v>
+        <v>1.009225761458618</v>
       </c>
       <c r="K4">
-        <v>1.0475837567655</v>
+        <v>1.019331973962846</v>
       </c>
       <c r="L4">
-        <v>1.032400620312457</v>
+        <v>1.007084730366979</v>
       </c>
       <c r="M4">
-        <v>1.049108043620847</v>
+        <v>0.9804263166729625</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021603054459884</v>
+        <v>0.9908864198304774</v>
       </c>
       <c r="D5">
-        <v>1.039384410557024</v>
+        <v>1.010297995180265</v>
       </c>
       <c r="E5">
-        <v>1.024082301138961</v>
+        <v>0.9980230609125629</v>
       </c>
       <c r="F5">
-        <v>1.041143014144861</v>
+        <v>0.9720127117232037</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055476995435578</v>
+        <v>1.040761231243413</v>
       </c>
       <c r="J5">
-        <v>1.040029118824036</v>
+        <v>1.010064363507497</v>
       </c>
       <c r="K5">
-        <v>1.048816365328033</v>
+        <v>1.020052177536032</v>
       </c>
       <c r="L5">
-        <v>1.033680970937015</v>
+        <v>1.007920203713482</v>
       </c>
       <c r="M5">
-        <v>1.050556193579236</v>
+        <v>0.9822276617746248</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021905974872861</v>
+        <v>0.9911095529126832</v>
       </c>
       <c r="D6">
-        <v>1.039628562582371</v>
+        <v>1.010457200814237</v>
       </c>
       <c r="E6">
-        <v>1.024335385227629</v>
+        <v>0.9982025422464802</v>
       </c>
       <c r="F6">
-        <v>1.04142352232213</v>
+        <v>0.9723569963018939</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055586417081166</v>
+        <v>1.040817927552874</v>
       </c>
       <c r="J6">
-        <v>1.04025104535361</v>
+        <v>1.010204396688544</v>
       </c>
       <c r="K6">
-        <v>1.049022106654116</v>
+        <v>1.020172374130133</v>
       </c>
       <c r="L6">
-        <v>1.033894736555954</v>
+        <v>1.008059765816375</v>
       </c>
       <c r="M6">
-        <v>1.050797996432521</v>
+        <v>0.9825284369935656</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019813390302831</v>
+        <v>0.9895688565131957</v>
       </c>
       <c r="D7">
-        <v>1.03794207645926</v>
+        <v>1.009357829289343</v>
       </c>
       <c r="E7">
-        <v>1.022587474711008</v>
+        <v>0.996963747661343</v>
       </c>
       <c r="F7">
-        <v>1.039486213981623</v>
+        <v>0.9699788414941598</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0548293332125</v>
+        <v>1.0404250097099</v>
       </c>
       <c r="J7">
-        <v>1.038717586408939</v>
+        <v>1.009237018950011</v>
       </c>
       <c r="K7">
-        <v>1.047600309251545</v>
+        <v>1.019341646469462</v>
       </c>
       <c r="L7">
-        <v>1.032417810195742</v>
+        <v>1.007095942398035</v>
       </c>
       <c r="M7">
-        <v>1.04912748490596</v>
+        <v>0.9804504997894717</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010815643034884</v>
+        <v>0.9829638488205467</v>
       </c>
       <c r="D8">
-        <v>1.030694268148819</v>
+        <v>1.004643254198636</v>
       </c>
       <c r="E8">
-        <v>1.015082541501855</v>
+        <v>0.991665842187341</v>
       </c>
       <c r="F8">
-        <v>1.03116811536656</v>
+        <v>0.9597568245885811</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051544133870329</v>
+        <v>1.038704626424803</v>
       </c>
       <c r="J8">
-        <v>1.032114691671146</v>
+        <v>1.005078045917792</v>
       </c>
       <c r="K8">
-        <v>1.041473917776067</v>
+        <v>1.015760694865855</v>
       </c>
       <c r="L8">
-        <v>1.026062013545556</v>
+        <v>1.002959901071466</v>
       </c>
       <c r="M8">
-        <v>1.041941817978016</v>
+        <v>0.9715109929842173</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9938987932135858</v>
+        <v>0.9706397828340947</v>
       </c>
       <c r="D9">
-        <v>1.017089070999448</v>
+        <v>0.9958464683967071</v>
       </c>
       <c r="E9">
-        <v>1.00102031419832</v>
+        <v>0.9818339935259366</v>
       </c>
       <c r="F9">
-        <v>1.015581502015294</v>
+        <v>0.9405432135264162</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045256112722995</v>
+        <v>1.035360451760741</v>
       </c>
       <c r="J9">
-        <v>1.019668855848479</v>
+        <v>0.9972736975228468</v>
       </c>
       <c r="K9">
-        <v>1.029910843564648</v>
+        <v>1.00900729513447</v>
       </c>
       <c r="L9">
-        <v>1.014096859178187</v>
+        <v>0.9952288419219846</v>
       </c>
       <c r="M9">
-        <v>1.028426739159086</v>
+        <v>0.9546806909743604</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9817823873149132</v>
+        <v>0.9618964237483744</v>
       </c>
       <c r="D10">
-        <v>1.007366674233201</v>
+        <v>0.98961158003859</v>
       </c>
       <c r="E10">
-        <v>0.9909878777660671</v>
+        <v>0.9748989054790622</v>
       </c>
       <c r="F10">
-        <v>1.004460047060623</v>
+        <v>0.9267746904126742</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040680983986098</v>
+        <v>1.03290111928162</v>
       </c>
       <c r="J10">
-        <v>1.010737918792889</v>
+        <v>0.9917078611684931</v>
       </c>
       <c r="K10">
-        <v>1.021604182866053</v>
+        <v>1.004170968489327</v>
       </c>
       <c r="L10">
-        <v>1.005521777908436</v>
+        <v>0.9897366559942298</v>
       </c>
       <c r="M10">
-        <v>1.018749238220279</v>
+        <v>0.9426051220879255</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9763045812210552</v>
+        <v>0.9579684183624044</v>
       </c>
       <c r="D11">
-        <v>1.002978327433623</v>
+        <v>0.9868134011031707</v>
       </c>
       <c r="E11">
-        <v>0.9864633099056873</v>
+        <v>0.9717937591061618</v>
       </c>
       <c r="F11">
-        <v>0.9994437410897434</v>
+        <v>0.9205453669659153</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03859672311547</v>
+        <v>1.031776647167159</v>
       </c>
       <c r="J11">
-        <v>1.006697456797264</v>
+        <v>0.9892006815919099</v>
       </c>
       <c r="K11">
-        <v>1.017844294584702</v>
+        <v>1.00198835687805</v>
       </c>
       <c r="L11">
-        <v>1.001645104575875</v>
+        <v>0.9872679553184798</v>
       </c>
       <c r="M11">
-        <v>1.014376155268662</v>
+        <v>0.9371391729891921</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9742319564330256</v>
+        <v>0.9564864047466487</v>
       </c>
       <c r="D12">
-        <v>1.001319170129349</v>
+        <v>0.9857582293938045</v>
       </c>
       <c r="E12">
-        <v>0.9847531891277437</v>
+        <v>0.9706238668712281</v>
       </c>
       <c r="F12">
-        <v>0.9975476480552987</v>
+        <v>0.9181874021121942</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037805830015452</v>
+        <v>1.031349533925137</v>
       </c>
       <c r="J12">
-        <v>1.005168369879771</v>
+        <v>0.9882537439188479</v>
       </c>
       <c r="K12">
-        <v>1.016421140486212</v>
+        <v>1.001163461928836</v>
       </c>
       <c r="L12">
-        <v>1.000178441888103</v>
+        <v>0.9863363701919039</v>
       </c>
       <c r="M12">
-        <v>1.012721982556205</v>
+        <v>0.9350698751394242</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9746783128624695</v>
+        <v>0.9568053696704983</v>
       </c>
       <c r="D13">
-        <v>1.00167642344876</v>
+        <v>0.9859852999683772</v>
       </c>
       <c r="E13">
-        <v>0.9851213919967238</v>
+        <v>0.9708755793100738</v>
       </c>
       <c r="F13">
-        <v>0.9979558977747877</v>
+        <v>0.9186952588608314</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037976256136617</v>
+        <v>1.031441586469349</v>
       </c>
       <c r="J13">
-        <v>1.005497682936993</v>
+        <v>0.9884575923422847</v>
       </c>
       <c r="K13">
-        <v>1.016727649933348</v>
+        <v>1.001341061517973</v>
       </c>
       <c r="L13">
-        <v>1.000494290728306</v>
+        <v>0.9865368762579635</v>
       </c>
       <c r="M13">
-        <v>1.013078198681644</v>
+        <v>0.9355155704369047</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9761340507855777</v>
+        <v>0.9578463934705761</v>
       </c>
       <c r="D14">
-        <v>1.002841789602718</v>
+        <v>0.98672650893229</v>
       </c>
       <c r="E14">
-        <v>0.9863225672904431</v>
+        <v>0.9716973991799196</v>
       </c>
       <c r="F14">
-        <v>0.9992876954347559</v>
+        <v>0.9203513814388039</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038531695906148</v>
+        <v>1.031741537307171</v>
       </c>
       <c r="J14">
-        <v>1.006571652832843</v>
+        <v>0.9891227334753616</v>
       </c>
       <c r="K14">
-        <v>1.017727210982632</v>
+        <v>1.001920465470626</v>
       </c>
       <c r="L14">
-        <v>1.001524427465007</v>
+        <v>0.987191254190854</v>
       </c>
       <c r="M14">
-        <v>1.014240043804065</v>
+        <v>0.9369689408719306</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9770258521591368</v>
+        <v>0.9584847059601083</v>
       </c>
       <c r="D15">
-        <v>1.003555876143752</v>
+        <v>0.9871810658748804</v>
       </c>
       <c r="E15">
-        <v>0.9870586664681406</v>
+        <v>0.9722015263162447</v>
       </c>
       <c r="F15">
-        <v>1.000103826421686</v>
+        <v>0.9213658007704681</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038871668584829</v>
+        <v>1.031925081359348</v>
       </c>
       <c r="J15">
-        <v>1.007229542100697</v>
+        <v>0.9895304398912376</v>
       </c>
       <c r="K15">
-        <v>1.018339487380777</v>
+        <v>1.00227554871255</v>
       </c>
       <c r="L15">
-        <v>1.002155523939923</v>
+        <v>0.9875924717273895</v>
       </c>
       <c r="M15">
-        <v>1.01495186827642</v>
+        <v>0.9378591339691718</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9821407957884406</v>
+        <v>0.9621539838660996</v>
       </c>
       <c r="D16">
-        <v>1.007653962590321</v>
+        <v>0.9897951279384184</v>
       </c>
       <c r="E16">
-        <v>0.9912841594561557</v>
+        <v>0.97510273532348</v>
       </c>
       <c r="F16">
-        <v>1.00478851486817</v>
+        <v>0.927182150842784</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04081703593999</v>
+        <v>1.032974451610629</v>
       </c>
       <c r="J16">
-        <v>1.011002234320312</v>
+        <v>0.9918721195975587</v>
       </c>
       <c r="K16">
-        <v>1.021850108125001</v>
+        <v>1.004313884178349</v>
       </c>
       <c r="L16">
-        <v>1.005775438291966</v>
+        <v>0.9898985052715564</v>
       </c>
       <c r="M16">
-        <v>1.019035420840618</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9429626046942537</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.985285214743773</v>
+        <v>0.9644164898374051</v>
       </c>
       <c r="D17">
-        <v>1.010175249520025</v>
+        <v>0.9914078240225681</v>
       </c>
       <c r="E17">
-        <v>0.9938847913932473</v>
+        <v>0.9768944516286038</v>
       </c>
       <c r="F17">
-        <v>1.007671592434711</v>
+        <v>0.9307563669027322</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042008880139475</v>
+        <v>1.033616420394139</v>
       </c>
       <c r="J17">
-        <v>1.013320845524466</v>
+        <v>0.9933142716000373</v>
       </c>
       <c r="K17">
-        <v>1.024007191301793</v>
+        <v>1.005568201295615</v>
       </c>
       <c r="L17">
-        <v>1.008000898728903</v>
+        <v>0.9913201077290678</v>
       </c>
       <c r="M17">
-        <v>1.021546434738516</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9460981384749947</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9870972156093076</v>
+        <v>0.9657225825287733</v>
       </c>
       <c r="D18">
-        <v>1.01162882263819</v>
+        <v>0.9923390592915822</v>
       </c>
       <c r="E18">
-        <v>0.9953844599261994</v>
+        <v>0.9779297516561214</v>
       </c>
       <c r="F18">
-        <v>1.009334080174772</v>
+        <v>0.9328156318980912</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042694193799074</v>
+        <v>1.03398515824819</v>
       </c>
       <c r="J18">
-        <v>1.014656695648577</v>
+        <v>0.9941461603184263</v>
       </c>
       <c r="K18">
-        <v>1.025249801732609</v>
+        <v>1.006291353954827</v>
       </c>
       <c r="L18">
-        <v>1.009283342065754</v>
+        <v>0.9921406406769989</v>
       </c>
       <c r="M18">
-        <v>1.022993617117327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9479044105147425</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9877114050134055</v>
+        <v>0.9661656682232174</v>
       </c>
       <c r="D19">
-        <v>1.012121627222891</v>
+        <v>0.9926550172114202</v>
       </c>
       <c r="E19">
-        <v>0.9958929523925802</v>
+        <v>0.9782811365662196</v>
       </c>
       <c r="F19">
-        <v>1.009897771132111</v>
+        <v>0.9335135715198163</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042926228276736</v>
+        <v>1.034109933408725</v>
       </c>
       <c r="J19">
-        <v>1.015109441478472</v>
+        <v>0.9944282668756868</v>
       </c>
       <c r="K19">
-        <v>1.025670915997621</v>
+        <v>1.006536519151761</v>
       </c>
       <c r="L19">
-        <v>1.00971803107366</v>
+        <v>0.9924189801630496</v>
       </c>
       <c r="M19">
-        <v>1.023484176626018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9485165592965157</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.984950154423802</v>
+        <v>0.9641751611418689</v>
       </c>
       <c r="D20">
-        <v>1.009906518790779</v>
+        <v>0.9912357786570103</v>
       </c>
       <c r="E20">
-        <v>0.9936075673189171</v>
+        <v>0.9767032366810817</v>
       </c>
       <c r="F20">
-        <v>1.00736426584514</v>
+        <v>0.9303755532448585</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041882035544404</v>
+        <v>1.033548137342338</v>
       </c>
       <c r="J20">
-        <v>1.013073808347289</v>
+        <v>0.9931605109983069</v>
       </c>
       <c r="K20">
-        <v>1.023777382322993</v>
+        <v>1.00543450705799</v>
       </c>
       <c r="L20">
-        <v>1.007763759042103</v>
+        <v>0.9911684862138205</v>
       </c>
       <c r="M20">
-        <v>1.021278847833429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9457640892668289</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9757064465810291</v>
+        <v>0.9575404862169259</v>
       </c>
       <c r="D21">
-        <v>1.002499442448673</v>
+        <v>0.9865086863312519</v>
       </c>
       <c r="E21">
-        <v>0.9859696859059431</v>
+        <v>0.9714558591115576</v>
       </c>
       <c r="F21">
-        <v>0.998896443112405</v>
+        <v>0.9198649466785971</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038368604282561</v>
+        <v>1.031653473861285</v>
       </c>
       <c r="J21">
-        <v>1.006256195505877</v>
+        <v>0.9889273074419189</v>
       </c>
       <c r="K21">
-        <v>1.017433616345903</v>
+        <v>1.00175024439445</v>
       </c>
       <c r="L21">
-        <v>1.001221833018763</v>
+        <v>0.9869989677872726</v>
       </c>
       <c r="M21">
-        <v>1.013898752922254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9365420654298056</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9696732722126153</v>
+        <v>0.9532351161219829</v>
       </c>
       <c r="D22">
-        <v>0.9976724210607564</v>
+        <v>0.9834445543866706</v>
       </c>
       <c r="E22">
-        <v>0.9809953962310807</v>
+        <v>0.9680604811316966</v>
       </c>
       <c r="F22">
-        <v>0.9933809656123307</v>
+        <v>0.9129989143623749</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03606220907553</v>
+        <v>1.030407358681564</v>
       </c>
       <c r="J22">
-        <v>1.001804754649422</v>
+        <v>0.9861745023187498</v>
       </c>
       <c r="K22">
-        <v>1.013290129193092</v>
+        <v>0.9993512701017183</v>
       </c>
       <c r="L22">
-        <v>0.9969529789799881</v>
+        <v>0.984292377406584</v>
       </c>
       <c r="M22">
-        <v>1.009084697225925</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9305161547868053</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9728937138249946</v>
+        <v>0.9555307590531119</v>
       </c>
       <c r="D23">
-        <v>1.000248270149055</v>
+        <v>0.985078000321663</v>
       </c>
       <c r="E23">
-        <v>0.983649544320545</v>
+        <v>0.9698699657391489</v>
       </c>
       <c r="F23">
-        <v>0.9963239489756121</v>
+        <v>0.9166646012891502</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037294542365292</v>
+        <v>1.031073325143771</v>
       </c>
       <c r="J23">
-        <v>1.00418100513118</v>
+        <v>0.9876428520729357</v>
       </c>
       <c r="K23">
-        <v>1.015502112862682</v>
+        <v>1.000631158018872</v>
       </c>
       <c r="L23">
-        <v>0.999231512355924</v>
+        <v>0.9857356167544042</v>
       </c>
       <c r="M23">
-        <v>1.011654073486317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9337334300181107</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9851016217758171</v>
+        <v>0.9642842490643397</v>
       </c>
       <c r="D24">
-        <v>1.010027999160943</v>
+        <v>0.9913135475975361</v>
       </c>
       <c r="E24">
-        <v>0.9937328860333503</v>
+        <v>0.9767896686170027</v>
       </c>
       <c r="F24">
-        <v>1.007503192522876</v>
+        <v>0.9305477051020499</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041939381565681</v>
+        <v>1.033579009129134</v>
       </c>
       <c r="J24">
-        <v>1.013185484812684</v>
+        <v>0.9932300174387069</v>
       </c>
       <c r="K24">
-        <v>1.023881271101192</v>
+        <v>1.005494943836386</v>
       </c>
       <c r="L24">
-        <v>1.007870960404081</v>
+        <v>0.9912370241501431</v>
       </c>
       <c r="M24">
-        <v>1.021399812586304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9459151014143484</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.998410034561365</v>
+        <v>0.9739135200438036</v>
       </c>
       <c r="D25">
-        <v>1.020713989795563</v>
+        <v>0.9981826442341504</v>
       </c>
       <c r="E25">
-        <v>1.004764114134421</v>
+        <v>0.9844391251341514</v>
       </c>
       <c r="F25">
-        <v>1.019731317827222</v>
+        <v>0.9456673134408321</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046945449797925</v>
+        <v>1.036263959158265</v>
       </c>
       <c r="J25">
-        <v>1.022991026119117</v>
+        <v>0.9993518604622639</v>
       </c>
       <c r="K25">
-        <v>1.032999037863987</v>
+        <v>1.010809237973111</v>
       </c>
       <c r="L25">
-        <v>1.017288920817917</v>
+        <v>0.9972839042688817</v>
       </c>
       <c r="M25">
-        <v>1.032030861958694</v>
+        <v>0.9591720105822925</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.981219185531403</v>
+        <v>1.016550561112255</v>
       </c>
       <c r="D2">
-        <v>1.00339773120742</v>
+        <v>1.021986328851226</v>
       </c>
       <c r="E2">
-        <v>0.9902698399844028</v>
+        <v>1.018063608546924</v>
       </c>
       <c r="F2">
-        <v>0.957048757312301</v>
+        <v>1.014897203243716</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038241170009569</v>
+        <v>1.026413501647625</v>
       </c>
       <c r="J2">
-        <v>1.00397651460739</v>
+        <v>1.021769729978367</v>
       </c>
       <c r="K2">
-        <v>1.014809932330033</v>
+        <v>1.024822041565477</v>
       </c>
       <c r="L2">
-        <v>1.001866416718737</v>
+        <v>1.020910937478898</v>
       </c>
       <c r="M2">
-        <v>0.9691407761885011</v>
+        <v>1.017753980080026</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9863286145925536</v>
+        <v>1.017581810294131</v>
       </c>
       <c r="D3">
-        <v>1.007045215774489</v>
+        <v>1.022721097083471</v>
       </c>
       <c r="E3">
-        <v>0.9943621624685889</v>
+        <v>1.018939505950437</v>
       </c>
       <c r="F3">
-        <v>0.9649698911699085</v>
+        <v>1.016572484601029</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039588054810882</v>
+        <v>1.026583088349896</v>
       </c>
       <c r="J3">
-        <v>1.007199043169476</v>
+        <v>1.022436049147345</v>
       </c>
       <c r="K3">
-        <v>1.017588738465096</v>
+        <v>1.025363576045221</v>
       </c>
       <c r="L3">
-        <v>1.00506769238984</v>
+        <v>1.021592371068638</v>
       </c>
       <c r="M3">
-        <v>0.9760715179736811</v>
+        <v>1.019231893363679</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9895509374847767</v>
+        <v>1.018248518103569</v>
       </c>
       <c r="D4">
-        <v>1.009345041991923</v>
+        <v>1.023195576963124</v>
       </c>
       <c r="E4">
-        <v>0.9969493466652879</v>
+        <v>1.019506175193396</v>
       </c>
       <c r="F4">
-        <v>0.9699511694690508</v>
+        <v>1.017655727435359</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040420420289405</v>
+        <v>1.026690586933809</v>
       </c>
       <c r="J4">
-        <v>1.009225761458618</v>
+        <v>1.022866089926425</v>
       </c>
       <c r="K4">
-        <v>1.019331973962846</v>
+        <v>1.025712359924329</v>
       </c>
       <c r="L4">
-        <v>1.007084730366979</v>
+        <v>1.022032579390868</v>
       </c>
       <c r="M4">
-        <v>0.9804263166729625</v>
+        <v>1.020186985609237</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9908864198304774</v>
+        <v>1.018528664674083</v>
       </c>
       <c r="D5">
-        <v>1.010297995180265</v>
+        <v>1.023394817455326</v>
       </c>
       <c r="E5">
-        <v>0.9980230609125629</v>
+        <v>1.019744380668359</v>
       </c>
       <c r="F5">
-        <v>0.9720127117232037</v>
+        <v>1.018110944650347</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040761231243413</v>
+        <v>1.026735244049268</v>
       </c>
       <c r="J5">
-        <v>1.010064363507497</v>
+        <v>1.02304661355439</v>
       </c>
       <c r="K5">
-        <v>1.020052177536032</v>
+        <v>1.02585859983071</v>
       </c>
       <c r="L5">
-        <v>1.007920203713482</v>
+        <v>1.022217470038581</v>
       </c>
       <c r="M5">
-        <v>0.9822276617746248</v>
+        <v>1.02058822186776</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9911095529126832</v>
+        <v>1.018575694496977</v>
       </c>
       <c r="D6">
-        <v>1.010457200814237</v>
+        <v>1.023428257273347</v>
       </c>
       <c r="E6">
-        <v>0.9982025422464802</v>
+        <v>1.019784375122504</v>
       </c>
       <c r="F6">
-        <v>0.9723569963018939</v>
+        <v>1.018187367406278</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040817927552874</v>
+        <v>1.026742710781484</v>
       </c>
       <c r="J6">
-        <v>1.010204396688544</v>
+        <v>1.023076908717872</v>
       </c>
       <c r="K6">
-        <v>1.020172374130133</v>
+        <v>1.025883131359133</v>
       </c>
       <c r="L6">
-        <v>1.008059765816375</v>
+        <v>1.022248503867773</v>
       </c>
       <c r="M6">
-        <v>0.9825284369935656</v>
+        <v>1.020655574710817</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9895688565131957</v>
+        <v>1.018252261974015</v>
       </c>
       <c r="D7">
-        <v>1.009357829289343</v>
+        <v>1.023198240131457</v>
       </c>
       <c r="E7">
-        <v>0.996963747661343</v>
+        <v>1.019509358193606</v>
       </c>
       <c r="F7">
-        <v>0.9699788414941598</v>
+        <v>1.017661810760183</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0404250097099</v>
+        <v>1.026691185747903</v>
       </c>
       <c r="J7">
-        <v>1.009237018950011</v>
+        <v>1.022868503134358</v>
       </c>
       <c r="K7">
-        <v>1.019341646469462</v>
+        <v>1.025714315516745</v>
       </c>
       <c r="L7">
-        <v>1.007095942398035</v>
+        <v>1.022035050587564</v>
       </c>
       <c r="M7">
-        <v>0.9804504997894717</v>
+        <v>1.020192348057463</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9829638488205467</v>
+        <v>1.01689919735698</v>
       </c>
       <c r="D8">
-        <v>1.004643254198636</v>
+        <v>1.022234846890111</v>
       </c>
       <c r="E8">
-        <v>0.991665842187341</v>
+        <v>1.018359642114088</v>
       </c>
       <c r="F8">
-        <v>0.9597568245885811</v>
+        <v>1.01546353782478</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038704626424803</v>
+        <v>1.026471277031194</v>
       </c>
       <c r="J8">
-        <v>1.005078045917792</v>
+        <v>1.021995146432122</v>
       </c>
       <c r="K8">
-        <v>1.015760694865855</v>
+        <v>1.025005392316029</v>
       </c>
       <c r="L8">
-        <v>1.002959901071466</v>
+        <v>1.021141381575772</v>
       </c>
       <c r="M8">
-        <v>0.9715109929842173</v>
+        <v>1.018253703718146</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9706397828340947</v>
+        <v>1.014510427548025</v>
       </c>
       <c r="D9">
-        <v>0.9958464683967071</v>
+        <v>1.020529837655088</v>
       </c>
       <c r="E9">
-        <v>0.9818339935259366</v>
+        <v>1.016332946642559</v>
       </c>
       <c r="F9">
-        <v>0.9405432135264162</v>
+        <v>1.011583606740155</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035360451760741</v>
+        <v>1.026066654959197</v>
       </c>
       <c r="J9">
-        <v>0.9972736975228468</v>
+        <v>1.020447626157982</v>
       </c>
       <c r="K9">
-        <v>1.00900729513447</v>
+        <v>1.023743720950689</v>
       </c>
       <c r="L9">
-        <v>0.9952288419219846</v>
+        <v>1.019561044510838</v>
       </c>
       <c r="M9">
-        <v>0.9546806909743604</v>
+        <v>1.01482794673804</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9618964237483744</v>
+        <v>1.012914803510839</v>
       </c>
       <c r="D10">
-        <v>0.98961158003859</v>
+        <v>1.019388191088697</v>
       </c>
       <c r="E10">
-        <v>0.9748989054790622</v>
+        <v>1.014981278848573</v>
       </c>
       <c r="F10">
-        <v>0.9267746904126742</v>
+        <v>1.008992265923486</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03290111928162</v>
+        <v>1.025785404709109</v>
       </c>
       <c r="J10">
-        <v>0.9917078611684931</v>
+        <v>1.019410141885455</v>
       </c>
       <c r="K10">
-        <v>1.004170968489327</v>
+        <v>1.022894210906287</v>
       </c>
       <c r="L10">
-        <v>0.9897366559942298</v>
+        <v>1.018503694968282</v>
       </c>
       <c r="M10">
-        <v>0.9426051220879255</v>
+        <v>1.012537219019072</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9579684183624044</v>
+        <v>1.012223122311614</v>
       </c>
       <c r="D11">
-        <v>0.9868134011031707</v>
+        <v>1.018892662936091</v>
       </c>
       <c r="E11">
-        <v>0.9717937591061618</v>
+        <v>1.014395855592136</v>
       </c>
       <c r="F11">
-        <v>0.9205453669659153</v>
+        <v>1.007868957908892</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031776647167159</v>
+        <v>1.02566089234476</v>
       </c>
       <c r="J11">
-        <v>0.9892006815919099</v>
+        <v>1.018959510379517</v>
       </c>
       <c r="K11">
-        <v>1.00198835687805</v>
+        <v>1.022524366814073</v>
       </c>
       <c r="L11">
-        <v>0.9872679553184798</v>
+        <v>1.018044941543705</v>
       </c>
       <c r="M11">
-        <v>0.9371391729891921</v>
+        <v>1.011543579727029</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9564864047466487</v>
+        <v>1.011966084223143</v>
       </c>
       <c r="D12">
-        <v>0.9857582293938045</v>
+        <v>1.018708422897209</v>
       </c>
       <c r="E12">
-        <v>0.9706238668712281</v>
+        <v>1.014178381103008</v>
       </c>
       <c r="F12">
-        <v>0.9181874021121942</v>
+        <v>1.007451515464157</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031349533925137</v>
+        <v>1.025614232806781</v>
       </c>
       <c r="J12">
-        <v>0.9882537439188479</v>
+        <v>1.018791915140923</v>
       </c>
       <c r="K12">
-        <v>1.001163461928836</v>
+        <v>1.022386689078703</v>
       </c>
       <c r="L12">
-        <v>0.9863363701919039</v>
+        <v>1.017874401788302</v>
       </c>
       <c r="M12">
-        <v>0.9350698751394242</v>
+        <v>1.01117422833268</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9568053696704983</v>
+        <v>1.012021225085965</v>
       </c>
       <c r="D13">
-        <v>0.9859852999683772</v>
+        <v>1.018747951109401</v>
       </c>
       <c r="E13">
-        <v>0.9708755793100738</v>
+        <v>1.014225031139014</v>
       </c>
       <c r="F13">
-        <v>0.9186952588608314</v>
+        <v>1.00754106730044</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031441586469349</v>
+        <v>1.025624259995436</v>
       </c>
       <c r="J13">
-        <v>0.9884575923422847</v>
+        <v>1.018827874439656</v>
       </c>
       <c r="K13">
-        <v>1.001341061517973</v>
+        <v>1.022416235058812</v>
       </c>
       <c r="L13">
-        <v>0.9865368762579635</v>
+        <v>1.017910989419304</v>
       </c>
       <c r="M13">
-        <v>0.9355155704369047</v>
+        <v>1.011253467789855</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9578463934705761</v>
+        <v>1.012201877858661</v>
       </c>
       <c r="D14">
-        <v>0.98672650893229</v>
+        <v>1.018877437247197</v>
       </c>
       <c r="E14">
-        <v>0.9716973991799196</v>
+        <v>1.014377879541495</v>
       </c>
       <c r="F14">
-        <v>0.9203513814388039</v>
+        <v>1.007834456036226</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031741537307171</v>
+        <v>1.02565704381925</v>
       </c>
       <c r="J14">
-        <v>0.9891227334753616</v>
+        <v>1.018945661208704</v>
       </c>
       <c r="K14">
-        <v>1.001920465470626</v>
+        <v>1.022512992476882</v>
       </c>
       <c r="L14">
-        <v>0.987191254190854</v>
+        <v>1.018030847501463</v>
       </c>
       <c r="M14">
-        <v>0.9369689408719306</v>
+        <v>1.011513054571563</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9584847059601083</v>
+        <v>1.012313168447659</v>
       </c>
       <c r="D15">
-        <v>0.9871810658748804</v>
+        <v>1.018957194222939</v>
       </c>
       <c r="E15">
-        <v>0.9722015263162447</v>
+        <v>1.014472051515566</v>
       </c>
       <c r="F15">
-        <v>0.9213658007704681</v>
+        <v>1.008015196284749</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031925081359348</v>
+        <v>1.025677188670053</v>
       </c>
       <c r="J15">
-        <v>0.9895304398912376</v>
+        <v>1.019018205577275</v>
       </c>
       <c r="K15">
-        <v>1.00227554871255</v>
+        <v>1.02257256798903</v>
       </c>
       <c r="L15">
-        <v>0.9875924717273895</v>
+        <v>1.01810467766512</v>
       </c>
       <c r="M15">
-        <v>0.9378591339691718</v>
+        <v>1.011672958593665</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9621539838660996</v>
+        <v>1.01296069182564</v>
       </c>
       <c r="D16">
-        <v>0.9897951279384184</v>
+        <v>1.019421052605098</v>
       </c>
       <c r="E16">
-        <v>0.97510273532348</v>
+        <v>1.015020128393121</v>
       </c>
       <c r="F16">
-        <v>0.927182150842784</v>
+        <v>1.009066789236184</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032974451610629</v>
+        <v>1.025793610678253</v>
       </c>
       <c r="J16">
-        <v>0.9918721195975587</v>
+        <v>1.019440019342677</v>
       </c>
       <c r="K16">
-        <v>1.004313884178349</v>
+        <v>1.02291871403885</v>
       </c>
       <c r="L16">
-        <v>0.9898985052715564</v>
+        <v>1.018534121580468</v>
       </c>
       <c r="M16">
-        <v>0.9429626046942537</v>
+        <v>1.012603126243848</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9644164898374051</v>
+        <v>1.013366659868046</v>
       </c>
       <c r="D17">
-        <v>0.9914078240225681</v>
+        <v>1.01971170047723</v>
       </c>
       <c r="E17">
-        <v>0.9768944516286038</v>
+        <v>1.015363883867823</v>
       </c>
       <c r="F17">
-        <v>0.9307563669027322</v>
+        <v>1.009726086960964</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033616420394139</v>
+        <v>1.025865908406139</v>
       </c>
       <c r="J17">
-        <v>0.9933142716000373</v>
+        <v>1.019704237923731</v>
       </c>
       <c r="K17">
-        <v>1.005568201295615</v>
+        <v>1.023135306266721</v>
       </c>
       <c r="L17">
-        <v>0.9913201077290678</v>
+        <v>1.018803254990652</v>
       </c>
       <c r="M17">
-        <v>0.9460981384749947</v>
+        <v>1.013186124434973</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9657225825287733</v>
+        <v>1.013603380432992</v>
       </c>
       <c r="D18">
-        <v>0.9923390592915822</v>
+        <v>1.019881115900841</v>
       </c>
       <c r="E18">
-        <v>0.9779297516561214</v>
+        <v>1.015564376962499</v>
       </c>
       <c r="F18">
-        <v>0.9328156318980912</v>
+        <v>1.010110525139184</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03398515824819</v>
+        <v>1.025907815130884</v>
       </c>
       <c r="J18">
-        <v>0.9941461603184263</v>
+        <v>1.0198582177374</v>
       </c>
       <c r="K18">
-        <v>1.006291353954827</v>
+        <v>1.023261447858933</v>
       </c>
       <c r="L18">
-        <v>0.9921406406769989</v>
+        <v>1.018960147826329</v>
       </c>
       <c r="M18">
-        <v>0.9479044105147425</v>
+        <v>1.013526010181404</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9661656682232174</v>
+        <v>1.013684083579493</v>
       </c>
       <c r="D19">
-        <v>0.9926550172114202</v>
+        <v>1.019938862761267</v>
       </c>
       <c r="E19">
-        <v>0.9782811365662196</v>
+        <v>1.015632737635366</v>
       </c>
       <c r="F19">
-        <v>0.9335135715198163</v>
+        <v>1.010241588719281</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034109933408725</v>
+        <v>1.025922059579877</v>
       </c>
       <c r="J19">
-        <v>0.9944282668756868</v>
+        <v>1.019910698111419</v>
       </c>
       <c r="K19">
-        <v>1.006536519151761</v>
+        <v>1.023304426165083</v>
       </c>
       <c r="L19">
-        <v>0.9924189801630496</v>
+        <v>1.019013629309441</v>
       </c>
       <c r="M19">
-        <v>0.9485165592965157</v>
+        <v>1.013641874319767</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9641751611418689</v>
+        <v>1.013323110979638</v>
       </c>
       <c r="D20">
-        <v>0.9912357786570103</v>
+        <v>1.019680528564485</v>
       </c>
       <c r="E20">
-        <v>0.9767032366810817</v>
+        <v>1.015327003578375</v>
       </c>
       <c r="F20">
-        <v>0.9303755532448585</v>
+        <v>1.009655362937209</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033548137342338</v>
+        <v>1.025858178781135</v>
       </c>
       <c r="J20">
-        <v>0.9931605109983069</v>
+        <v>1.019675903683071</v>
       </c>
       <c r="K20">
-        <v>1.00543450705799</v>
+        <v>1.023112087937274</v>
       </c>
       <c r="L20">
-        <v>0.9911684862138205</v>
+        <v>1.018774388646132</v>
       </c>
       <c r="M20">
-        <v>0.9457640892668289</v>
+        <v>1.013123591605938</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9575404862169259</v>
+        <v>1.012148683361902</v>
       </c>
       <c r="D21">
-        <v>0.9865086863312519</v>
+        <v>1.018839311746499</v>
       </c>
       <c r="E21">
-        <v>0.9714558591115576</v>
+        <v>1.014332870117191</v>
       </c>
       <c r="F21">
-        <v>0.9198649466785971</v>
+        <v>1.007748065848509</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031653473861285</v>
+        <v>1.025647401121766</v>
       </c>
       <c r="J21">
-        <v>0.9889273074419189</v>
+        <v>1.018910981765252</v>
       </c>
       <c r="K21">
-        <v>1.00175024439445</v>
+        <v>1.022484508147617</v>
       </c>
       <c r="L21">
-        <v>0.9869989677872726</v>
+        <v>1.017995556109538</v>
       </c>
       <c r="M21">
-        <v>0.9365420654298056</v>
+        <v>1.011436620240929</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9532351161219829</v>
+        <v>1.011409596840704</v>
       </c>
       <c r="D22">
-        <v>0.9834445543866706</v>
+        <v>1.018309370541171</v>
       </c>
       <c r="E22">
-        <v>0.9680604811316966</v>
+        <v>1.013707689919243</v>
       </c>
       <c r="F22">
-        <v>0.9129989143623749</v>
+        <v>1.006547734695103</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030407358681564</v>
+        <v>1.025512504069873</v>
       </c>
       <c r="J22">
-        <v>0.9861745023187498</v>
+        <v>1.01842882572756</v>
       </c>
       <c r="K22">
-        <v>0.9993512701017183</v>
+        <v>1.022088181023993</v>
       </c>
       <c r="L22">
-        <v>0.984292377406584</v>
+        <v>1.017505072481073</v>
       </c>
       <c r="M22">
-        <v>0.9305161547868053</v>
+        <v>1.010374390907017</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9555307590531119</v>
+        <v>1.011801465424231</v>
       </c>
       <c r="D23">
-        <v>0.985078000321663</v>
+        <v>1.018590400624173</v>
       </c>
       <c r="E23">
-        <v>0.9698699657391489</v>
+        <v>1.014039122296057</v>
       </c>
       <c r="F23">
-        <v>0.9166646012891502</v>
+        <v>1.007184163984253</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031073325143771</v>
+        <v>1.025584240490401</v>
       </c>
       <c r="J23">
-        <v>0.9876428520729357</v>
+        <v>1.018684541746185</v>
       </c>
       <c r="K23">
-        <v>1.000631158018872</v>
+        <v>1.022298446934099</v>
       </c>
       <c r="L23">
-        <v>0.9857356167544042</v>
+        <v>1.017765163360634</v>
       </c>
       <c r="M23">
-        <v>0.9337334300181107</v>
+        <v>1.010937649743917</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9642842490643397</v>
+        <v>1.013342789075603</v>
       </c>
       <c r="D24">
-        <v>0.9913135475975361</v>
+        <v>1.019694614164196</v>
       </c>
       <c r="E24">
-        <v>0.9767896686170027</v>
+        <v>1.01534366823599</v>
       </c>
       <c r="F24">
-        <v>0.9305477051020499</v>
+        <v>1.009687320446261</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033579009129134</v>
+        <v>1.025861672279629</v>
       </c>
       <c r="J24">
-        <v>0.9932300174387069</v>
+        <v>1.019688707122139</v>
       </c>
       <c r="K24">
-        <v>1.005494943836386</v>
+        <v>1.023122579897316</v>
       </c>
       <c r="L24">
-        <v>0.9912370241501431</v>
+        <v>1.018787432377043</v>
       </c>
       <c r="M24">
-        <v>0.9459151014143484</v>
+        <v>1.01315184801574</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9739135200438036</v>
+        <v>1.015128523637385</v>
       </c>
       <c r="D25">
-        <v>0.9981826442341504</v>
+        <v>1.020971499469631</v>
       </c>
       <c r="E25">
-        <v>0.9844391251341514</v>
+        <v>1.016856988172088</v>
       </c>
       <c r="F25">
-        <v>0.9456673134408321</v>
+        <v>1.012587457853684</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036263959158265</v>
+        <v>1.026173287107494</v>
       </c>
       <c r="J25">
-        <v>0.9993518604622639</v>
+        <v>1.020848716315921</v>
       </c>
       <c r="K25">
-        <v>1.010809237973111</v>
+        <v>1.024071371538843</v>
       </c>
       <c r="L25">
-        <v>0.9972839042688817</v>
+        <v>1.019970264721034</v>
       </c>
       <c r="M25">
-        <v>0.9591720105822925</v>
+        <v>1.015714770205687</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016550561112255</v>
+        <v>0.9812191855314029</v>
       </c>
       <c r="D2">
-        <v>1.021986328851226</v>
+        <v>1.00339773120742</v>
       </c>
       <c r="E2">
-        <v>1.018063608546924</v>
+        <v>0.9902698399844027</v>
       </c>
       <c r="F2">
-        <v>1.014897203243716</v>
+        <v>0.9570487573123011</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026413501647625</v>
+        <v>1.038241170009569</v>
       </c>
       <c r="J2">
-        <v>1.021769729978367</v>
+        <v>1.00397651460739</v>
       </c>
       <c r="K2">
-        <v>1.024822041565477</v>
+        <v>1.014809932330033</v>
       </c>
       <c r="L2">
-        <v>1.020910937478898</v>
+        <v>1.001866416718737</v>
       </c>
       <c r="M2">
-        <v>1.017753980080026</v>
+        <v>0.9691407761885015</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017581810294131</v>
+        <v>0.9863286145925532</v>
       </c>
       <c r="D3">
-        <v>1.022721097083471</v>
+        <v>1.007045215774488</v>
       </c>
       <c r="E3">
-        <v>1.018939505950437</v>
+        <v>0.9943621624685887</v>
       </c>
       <c r="F3">
-        <v>1.016572484601029</v>
+        <v>0.9649698911699085</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026583088349896</v>
+        <v>1.039588054810881</v>
       </c>
       <c r="J3">
-        <v>1.022436049147345</v>
+        <v>1.007199043169475</v>
       </c>
       <c r="K3">
-        <v>1.025363576045221</v>
+        <v>1.017588738465095</v>
       </c>
       <c r="L3">
-        <v>1.021592371068638</v>
+        <v>1.00506769238984</v>
       </c>
       <c r="M3">
-        <v>1.019231893363679</v>
+        <v>0.9760715179736811</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018248518103569</v>
+        <v>0.9895509374847765</v>
       </c>
       <c r="D4">
-        <v>1.023195576963124</v>
+        <v>1.009345041991923</v>
       </c>
       <c r="E4">
-        <v>1.019506175193396</v>
+        <v>0.9969493466652877</v>
       </c>
       <c r="F4">
-        <v>1.017655727435359</v>
+        <v>0.9699511694690505</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026690586933809</v>
+        <v>1.040420420289405</v>
       </c>
       <c r="J4">
-        <v>1.022866089926425</v>
+        <v>1.009225761458618</v>
       </c>
       <c r="K4">
-        <v>1.025712359924329</v>
+        <v>1.019331973962846</v>
       </c>
       <c r="L4">
-        <v>1.022032579390868</v>
+        <v>1.007084730366979</v>
       </c>
       <c r="M4">
-        <v>1.020186985609237</v>
+        <v>0.9804263166729622</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018528664674083</v>
+        <v>0.9908864198304763</v>
       </c>
       <c r="D5">
-        <v>1.023394817455326</v>
+        <v>1.010297995180264</v>
       </c>
       <c r="E5">
-        <v>1.019744380668359</v>
+        <v>0.9980230609125619</v>
       </c>
       <c r="F5">
-        <v>1.018110944650347</v>
+        <v>0.9720127117232022</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026735244049268</v>
+        <v>1.040761231243412</v>
       </c>
       <c r="J5">
-        <v>1.02304661355439</v>
+        <v>1.010064363507496</v>
       </c>
       <c r="K5">
-        <v>1.02585859983071</v>
+        <v>1.020052177536031</v>
       </c>
       <c r="L5">
-        <v>1.022217470038581</v>
+        <v>1.00792020371348</v>
       </c>
       <c r="M5">
-        <v>1.02058822186776</v>
+        <v>0.9822276617746237</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018575694496977</v>
+        <v>0.991109552912683</v>
       </c>
       <c r="D6">
-        <v>1.023428257273347</v>
+        <v>1.010457200814237</v>
       </c>
       <c r="E6">
-        <v>1.019784375122504</v>
+        <v>0.9982025422464795</v>
       </c>
       <c r="F6">
-        <v>1.018187367406278</v>
+        <v>0.9723569963018927</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026742710781484</v>
+        <v>1.040817927552874</v>
       </c>
       <c r="J6">
-        <v>1.023076908717872</v>
+        <v>1.010204396688543</v>
       </c>
       <c r="K6">
-        <v>1.025883131359133</v>
+        <v>1.020172374130132</v>
       </c>
       <c r="L6">
-        <v>1.022248503867773</v>
+        <v>1.008059765816375</v>
       </c>
       <c r="M6">
-        <v>1.020655574710817</v>
+        <v>0.9825284369935645</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018252261974015</v>
+        <v>0.9895688565131958</v>
       </c>
       <c r="D7">
-        <v>1.023198240131457</v>
+        <v>1.009357829289343</v>
       </c>
       <c r="E7">
-        <v>1.019509358193606</v>
+        <v>0.9969637476613433</v>
       </c>
       <c r="F7">
-        <v>1.017661810760183</v>
+        <v>0.9699788414941597</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026691185747903</v>
+        <v>1.0404250097099</v>
       </c>
       <c r="J7">
-        <v>1.022868503134358</v>
+        <v>1.009237018950012</v>
       </c>
       <c r="K7">
-        <v>1.025714315516745</v>
+        <v>1.019341646469462</v>
       </c>
       <c r="L7">
-        <v>1.022035050587564</v>
+        <v>1.007095942398035</v>
       </c>
       <c r="M7">
-        <v>1.020192348057463</v>
+        <v>0.9804504997894713</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01689919735698</v>
+        <v>0.9829638488205478</v>
       </c>
       <c r="D8">
-        <v>1.022234846890111</v>
+        <v>1.004643254198637</v>
       </c>
       <c r="E8">
-        <v>1.018359642114088</v>
+        <v>0.991665842187342</v>
       </c>
       <c r="F8">
-        <v>1.01546353782478</v>
+        <v>0.9597568245885827</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026471277031194</v>
+        <v>1.038704626424803</v>
       </c>
       <c r="J8">
-        <v>1.021995146432122</v>
+        <v>1.005078045917794</v>
       </c>
       <c r="K8">
-        <v>1.025005392316029</v>
+        <v>1.015760694865856</v>
       </c>
       <c r="L8">
-        <v>1.021141381575772</v>
+        <v>1.002959901071467</v>
       </c>
       <c r="M8">
-        <v>1.018253703718146</v>
+        <v>0.9715109929842188</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014510427548025</v>
+        <v>0.9706397828340945</v>
       </c>
       <c r="D9">
-        <v>1.020529837655088</v>
+        <v>0.995846468396707</v>
       </c>
       <c r="E9">
-        <v>1.016332946642559</v>
+        <v>0.9818339935259361</v>
       </c>
       <c r="F9">
-        <v>1.011583606740155</v>
+        <v>0.9405432135264161</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026066654959197</v>
+        <v>1.035360451760741</v>
       </c>
       <c r="J9">
-        <v>1.020447626157982</v>
+        <v>0.9972736975228464</v>
       </c>
       <c r="K9">
-        <v>1.023743720950689</v>
+        <v>1.00900729513447</v>
       </c>
       <c r="L9">
-        <v>1.019561044510838</v>
+        <v>0.9952288419219841</v>
       </c>
       <c r="M9">
-        <v>1.01482794673804</v>
+        <v>0.9546806909743601</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012914803510839</v>
+        <v>0.9618964237483737</v>
       </c>
       <c r="D10">
-        <v>1.019388191088697</v>
+        <v>0.9896115800385895</v>
       </c>
       <c r="E10">
-        <v>1.014981278848573</v>
+        <v>0.9748989054790618</v>
       </c>
       <c r="F10">
-        <v>1.008992265923486</v>
+        <v>0.9267746904126738</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025785404709109</v>
+        <v>1.03290111928162</v>
       </c>
       <c r="J10">
-        <v>1.019410141885455</v>
+        <v>0.9917078611684926</v>
       </c>
       <c r="K10">
-        <v>1.022894210906287</v>
+        <v>1.004170968489327</v>
       </c>
       <c r="L10">
-        <v>1.018503694968282</v>
+        <v>0.9897366559942293</v>
       </c>
       <c r="M10">
-        <v>1.012537219019072</v>
+        <v>0.9426051220879248</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012223122311614</v>
+        <v>0.9579684183624037</v>
       </c>
       <c r="D11">
-        <v>1.018892662936091</v>
+        <v>0.9868134011031702</v>
       </c>
       <c r="E11">
-        <v>1.014395855592136</v>
+        <v>0.9717937591061612</v>
       </c>
       <c r="F11">
-        <v>1.007868957908892</v>
+        <v>0.9205453669659144</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02566089234476</v>
+        <v>1.031776647167159</v>
       </c>
       <c r="J11">
-        <v>1.018959510379517</v>
+        <v>0.9892006815919092</v>
       </c>
       <c r="K11">
-        <v>1.022524366814073</v>
+        <v>1.001988356878049</v>
       </c>
       <c r="L11">
-        <v>1.018044941543705</v>
+        <v>0.9872679553184792</v>
       </c>
       <c r="M11">
-        <v>1.011543579727029</v>
+        <v>0.9371391729891914</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011966084223143</v>
+        <v>0.9564864047466487</v>
       </c>
       <c r="D12">
-        <v>1.018708422897209</v>
+        <v>0.9857582293938048</v>
       </c>
       <c r="E12">
-        <v>1.014178381103008</v>
+        <v>0.9706238668712286</v>
       </c>
       <c r="F12">
-        <v>1.007451515464157</v>
+        <v>0.9181874021121943</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025614232806781</v>
+        <v>1.031349533925137</v>
       </c>
       <c r="J12">
-        <v>1.018791915140923</v>
+        <v>0.988253743918848</v>
       </c>
       <c r="K12">
-        <v>1.022386689078703</v>
+        <v>1.001163461928837</v>
       </c>
       <c r="L12">
-        <v>1.017874401788302</v>
+        <v>0.9863363701919041</v>
       </c>
       <c r="M12">
-        <v>1.01117422833268</v>
+        <v>0.9350698751394243</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012021225085965</v>
+        <v>0.9568053696704985</v>
       </c>
       <c r="D13">
-        <v>1.018747951109401</v>
+        <v>0.9859852999683772</v>
       </c>
       <c r="E13">
-        <v>1.014225031139014</v>
+        <v>0.9708755793100736</v>
       </c>
       <c r="F13">
-        <v>1.00754106730044</v>
+        <v>0.9186952588608319</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025624259995436</v>
+        <v>1.031441586469349</v>
       </c>
       <c r="J13">
-        <v>1.018827874439656</v>
+        <v>0.9884575923422848</v>
       </c>
       <c r="K13">
-        <v>1.022416235058812</v>
+        <v>1.001341061517973</v>
       </c>
       <c r="L13">
-        <v>1.017910989419304</v>
+        <v>0.9865368762579633</v>
       </c>
       <c r="M13">
-        <v>1.011253467789855</v>
+        <v>0.935515570436905</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012201877858661</v>
+        <v>0.957846393470575</v>
       </c>
       <c r="D14">
-        <v>1.018877437247197</v>
+        <v>0.9867265089322892</v>
       </c>
       <c r="E14">
-        <v>1.014377879541495</v>
+        <v>0.9716973991799184</v>
       </c>
       <c r="F14">
-        <v>1.007834456036226</v>
+        <v>0.9203513814388032</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02565704381925</v>
+        <v>1.03174153730717</v>
       </c>
       <c r="J14">
-        <v>1.018945661208704</v>
+        <v>0.9891227334753607</v>
       </c>
       <c r="K14">
-        <v>1.022512992476882</v>
+        <v>1.001920465470626</v>
       </c>
       <c r="L14">
-        <v>1.018030847501463</v>
+        <v>0.9871912541908529</v>
       </c>
       <c r="M14">
-        <v>1.011513054571563</v>
+        <v>0.9369689408719298</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012313168447659</v>
+        <v>0.9584847059601077</v>
       </c>
       <c r="D15">
-        <v>1.018957194222939</v>
+        <v>0.9871810658748796</v>
       </c>
       <c r="E15">
-        <v>1.014472051515566</v>
+        <v>0.9722015263162439</v>
       </c>
       <c r="F15">
-        <v>1.008015196284749</v>
+        <v>0.9213658007704676</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025677188670053</v>
+        <v>1.031925081359348</v>
       </c>
       <c r="J15">
-        <v>1.019018205577275</v>
+        <v>0.9895304398912371</v>
       </c>
       <c r="K15">
-        <v>1.02257256798903</v>
+        <v>1.00227554871255</v>
       </c>
       <c r="L15">
-        <v>1.01810467766512</v>
+        <v>0.9875924717273888</v>
       </c>
       <c r="M15">
-        <v>1.011672958593665</v>
+        <v>0.9378591339691713</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01296069182564</v>
+        <v>0.9621539838660995</v>
       </c>
       <c r="D16">
-        <v>1.019421052605098</v>
+        <v>0.9897951279384187</v>
       </c>
       <c r="E16">
-        <v>1.015020128393121</v>
+        <v>0.9751027353234796</v>
       </c>
       <c r="F16">
-        <v>1.009066789236184</v>
+        <v>0.9271821508427834</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025793610678253</v>
+        <v>1.032974451610629</v>
       </c>
       <c r="J16">
-        <v>1.019440019342677</v>
+        <v>0.9918721195975586</v>
       </c>
       <c r="K16">
-        <v>1.02291871403885</v>
+        <v>1.00431388417835</v>
       </c>
       <c r="L16">
-        <v>1.018534121580468</v>
+        <v>0.9898985052715559</v>
       </c>
       <c r="M16">
-        <v>1.012603126243848</v>
+        <v>0.9429626046942534</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013366659868046</v>
+        <v>0.964416489837406</v>
       </c>
       <c r="D17">
-        <v>1.01971170047723</v>
+        <v>0.9914078240225689</v>
       </c>
       <c r="E17">
-        <v>1.015363883867823</v>
+        <v>0.9768944516286043</v>
       </c>
       <c r="F17">
-        <v>1.009726086960964</v>
+        <v>0.9307563669027331</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025865908406139</v>
+        <v>1.03361642039414</v>
       </c>
       <c r="J17">
-        <v>1.019704237923731</v>
+        <v>0.9933142716000379</v>
       </c>
       <c r="K17">
-        <v>1.023135306266721</v>
+        <v>1.005568201295615</v>
       </c>
       <c r="L17">
-        <v>1.018803254990652</v>
+        <v>0.9913201077290683</v>
       </c>
       <c r="M17">
-        <v>1.013186124434973</v>
+        <v>0.9460981384749956</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013603380432992</v>
+        <v>0.9657225825287727</v>
       </c>
       <c r="D18">
-        <v>1.019881115900841</v>
+        <v>0.9923390592915817</v>
       </c>
       <c r="E18">
-        <v>1.015564376962499</v>
+        <v>0.9779297516561209</v>
       </c>
       <c r="F18">
-        <v>1.010110525139184</v>
+        <v>0.9328156318980907</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025907815130884</v>
+        <v>1.033985158248189</v>
       </c>
       <c r="J18">
-        <v>1.0198582177374</v>
+        <v>0.994146160318426</v>
       </c>
       <c r="K18">
-        <v>1.023261447858933</v>
+        <v>1.006291353954827</v>
       </c>
       <c r="L18">
-        <v>1.018960147826329</v>
+        <v>0.9921406406769986</v>
       </c>
       <c r="M18">
-        <v>1.013526010181404</v>
+        <v>0.9479044105147418</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013684083579493</v>
+        <v>0.966165668223217</v>
       </c>
       <c r="D19">
-        <v>1.019938862761267</v>
+        <v>0.9926550172114204</v>
       </c>
       <c r="E19">
-        <v>1.015632737635366</v>
+        <v>0.9782811365662195</v>
       </c>
       <c r="F19">
-        <v>1.010241588719281</v>
+        <v>0.9335135715198155</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025922059579877</v>
+        <v>1.034109933408725</v>
       </c>
       <c r="J19">
-        <v>1.019910698111419</v>
+        <v>0.9944282668756865</v>
       </c>
       <c r="K19">
-        <v>1.023304426165083</v>
+        <v>1.006536519151761</v>
       </c>
       <c r="L19">
-        <v>1.019013629309441</v>
+        <v>0.9924189801630493</v>
       </c>
       <c r="M19">
-        <v>1.013641874319767</v>
+        <v>0.9485165592965151</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013323110979638</v>
+        <v>0.9641751611418695</v>
       </c>
       <c r="D20">
-        <v>1.019680528564485</v>
+        <v>0.9912357786570108</v>
       </c>
       <c r="E20">
-        <v>1.015327003578375</v>
+        <v>0.9767032366810821</v>
       </c>
       <c r="F20">
-        <v>1.009655362937209</v>
+        <v>0.9303755532448594</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025858178781135</v>
+        <v>1.033548137342338</v>
       </c>
       <c r="J20">
-        <v>1.019675903683071</v>
+        <v>0.9931605109983075</v>
       </c>
       <c r="K20">
-        <v>1.023112087937274</v>
+        <v>1.005434507057991</v>
       </c>
       <c r="L20">
-        <v>1.018774388646132</v>
+        <v>0.9911684862138208</v>
       </c>
       <c r="M20">
-        <v>1.013123591605938</v>
+        <v>0.9457640892668296</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012148683361902</v>
+        <v>0.9575404862169263</v>
       </c>
       <c r="D21">
-        <v>1.018839311746499</v>
+        <v>0.9865086863312524</v>
       </c>
       <c r="E21">
-        <v>1.014332870117191</v>
+        <v>0.9714558591115577</v>
       </c>
       <c r="F21">
-        <v>1.007748065848509</v>
+        <v>0.9198649466785974</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025647401121766</v>
+        <v>1.031653473861286</v>
       </c>
       <c r="J21">
-        <v>1.018910981765252</v>
+        <v>0.9889273074419193</v>
       </c>
       <c r="K21">
-        <v>1.022484508147617</v>
+        <v>1.00175024439445</v>
       </c>
       <c r="L21">
-        <v>1.017995556109538</v>
+        <v>0.9869989677872727</v>
       </c>
       <c r="M21">
-        <v>1.011436620240929</v>
+        <v>0.9365420654298059</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.011409596840704</v>
+        <v>0.9532351161219835</v>
       </c>
       <c r="D22">
-        <v>1.018309370541171</v>
+        <v>0.9834445543866714</v>
       </c>
       <c r="E22">
-        <v>1.013707689919243</v>
+        <v>0.9680604811316973</v>
       </c>
       <c r="F22">
-        <v>1.006547734695103</v>
+        <v>0.9129989143623753</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025512504069873</v>
+        <v>1.030407358681565</v>
       </c>
       <c r="J22">
-        <v>1.01842882572756</v>
+        <v>0.9861745023187507</v>
       </c>
       <c r="K22">
-        <v>1.022088181023993</v>
+        <v>0.9993512701017193</v>
       </c>
       <c r="L22">
-        <v>1.017505072481073</v>
+        <v>0.9842923774065846</v>
       </c>
       <c r="M22">
-        <v>1.010374390907017</v>
+        <v>0.9305161547868057</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011801465424231</v>
+        <v>0.9555307590531124</v>
       </c>
       <c r="D23">
-        <v>1.018590400624173</v>
+        <v>0.9850780003216639</v>
       </c>
       <c r="E23">
-        <v>1.014039122296057</v>
+        <v>0.9698699657391494</v>
       </c>
       <c r="F23">
-        <v>1.007184163984253</v>
+        <v>0.9166646012891506</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025584240490401</v>
+        <v>1.031073325143772</v>
       </c>
       <c r="J23">
-        <v>1.018684541746185</v>
+        <v>0.9876428520729363</v>
       </c>
       <c r="K23">
-        <v>1.022298446934099</v>
+        <v>1.000631158018873</v>
       </c>
       <c r="L23">
-        <v>1.017765163360634</v>
+        <v>0.9857356167544046</v>
       </c>
       <c r="M23">
-        <v>1.010937649743917</v>
+        <v>0.9337334300181113</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013342789075603</v>
+        <v>0.9642842490643396</v>
       </c>
       <c r="D24">
-        <v>1.019694614164196</v>
+        <v>0.9913135475975361</v>
       </c>
       <c r="E24">
-        <v>1.01534366823599</v>
+        <v>0.9767896686170022</v>
       </c>
       <c r="F24">
-        <v>1.009687320446261</v>
+        <v>0.9305477051020499</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025861672279629</v>
+        <v>1.033579009129134</v>
       </c>
       <c r="J24">
-        <v>1.019688707122139</v>
+        <v>0.9932300174387069</v>
       </c>
       <c r="K24">
-        <v>1.023122579897316</v>
+        <v>1.005494943836386</v>
       </c>
       <c r="L24">
-        <v>1.018787432377043</v>
+        <v>0.9912370241501428</v>
       </c>
       <c r="M24">
-        <v>1.01315184801574</v>
+        <v>0.9459151014143483</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015128523637385</v>
+        <v>0.9739135200438044</v>
       </c>
       <c r="D25">
-        <v>1.020971499469631</v>
+        <v>0.998182644234151</v>
       </c>
       <c r="E25">
-        <v>1.016856988172088</v>
+        <v>0.9844391251341523</v>
       </c>
       <c r="F25">
-        <v>1.012587457853684</v>
+        <v>0.9456673134408325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026173287107494</v>
+        <v>1.036263959158266</v>
       </c>
       <c r="J25">
-        <v>1.020848716315921</v>
+        <v>0.9993518604622647</v>
       </c>
       <c r="K25">
-        <v>1.024071371538843</v>
+        <v>1.010809237973111</v>
       </c>
       <c r="L25">
-        <v>1.019970264721034</v>
+        <v>0.9972839042688824</v>
       </c>
       <c r="M25">
-        <v>1.015714770205687</v>
+        <v>0.959172010582293</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9812191855314029</v>
+        <v>1.015942154055546</v>
       </c>
       <c r="D2">
-        <v>1.00339773120742</v>
+        <v>1.035545586562362</v>
       </c>
       <c r="E2">
-        <v>0.9902698399844027</v>
+        <v>1.020195036365074</v>
       </c>
       <c r="F2">
-        <v>0.9570487573123011</v>
+        <v>1.03812095739207</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038241170009569</v>
+        <v>1.054004020980727</v>
       </c>
       <c r="J2">
-        <v>1.00397651460739</v>
+        <v>1.037656273427779</v>
       </c>
       <c r="K2">
-        <v>1.014809932330033</v>
+        <v>1.046530967748884</v>
       </c>
       <c r="L2">
-        <v>1.001866416718737</v>
+        <v>1.031380012991667</v>
       </c>
       <c r="M2">
-        <v>0.9691407761885015</v>
+        <v>1.049073574417583</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04741080033242</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043971696107395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9863286145925532</v>
+        <v>1.019457449923852</v>
       </c>
       <c r="D3">
-        <v>1.007045215774488</v>
+        <v>1.037920018424221</v>
       </c>
       <c r="E3">
-        <v>0.9943621624685887</v>
+        <v>1.022948599372634</v>
       </c>
       <c r="F3">
-        <v>0.9649698911699085</v>
+        <v>1.040650950347604</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039588054810881</v>
+        <v>1.054955090458447</v>
       </c>
       <c r="J3">
-        <v>1.007199043169475</v>
+        <v>1.039431381986297</v>
       </c>
       <c r="K3">
-        <v>1.017588738465095</v>
+        <v>1.048089649380817</v>
       </c>
       <c r="L3">
-        <v>1.00506769238984</v>
+        <v>1.033296033035301</v>
       </c>
       <c r="M3">
-        <v>0.9760715179736811</v>
+        <v>1.050788830374056</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048768296319596</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045071157716922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9895509374847765</v>
+        <v>1.021694393718935</v>
       </c>
       <c r="D4">
-        <v>1.009345041991923</v>
+        <v>1.03943477637229</v>
       </c>
       <c r="E4">
-        <v>0.9969493466652877</v>
+        <v>1.024706343029107</v>
       </c>
       <c r="F4">
-        <v>0.9699511694690505</v>
+        <v>1.042267715744419</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040420420289405</v>
+        <v>1.055551328511746</v>
       </c>
       <c r="J4">
-        <v>1.009225761458618</v>
+        <v>1.04055897641098</v>
       </c>
       <c r="K4">
-        <v>1.019331973962846</v>
+        <v>1.049079461060792</v>
       </c>
       <c r="L4">
-        <v>1.007084730366979</v>
+        <v>1.034515455431598</v>
       </c>
       <c r="M4">
-        <v>0.9804263166729622</v>
+        <v>1.051881427821338</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049633003668135</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045771917737999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9908864198304763</v>
+        <v>1.022629177516339</v>
       </c>
       <c r="D5">
-        <v>1.010297995180264</v>
+        <v>1.040070529328435</v>
       </c>
       <c r="E5">
-        <v>0.9980230609125619</v>
+        <v>1.025442601598271</v>
       </c>
       <c r="F5">
-        <v>0.9720127117232022</v>
+        <v>1.042945576567346</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040761231243412</v>
+        <v>1.055799772355298</v>
       </c>
       <c r="J5">
-        <v>1.010064363507496</v>
+        <v>1.041031168082145</v>
       </c>
       <c r="K5">
-        <v>1.020052177536031</v>
+        <v>1.049495149656355</v>
       </c>
       <c r="L5">
-        <v>1.00792020371348</v>
+        <v>1.035026203387814</v>
       </c>
       <c r="M5">
-        <v>0.9822276617746237</v>
+        <v>1.05233959176503</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049995605103303</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046072952311848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.991109552912683</v>
+        <v>1.022789457000997</v>
       </c>
       <c r="D6">
-        <v>1.010457200814237</v>
+        <v>1.040181867314539</v>
       </c>
       <c r="E6">
-        <v>0.9982025422464795</v>
+        <v>1.025569432721176</v>
       </c>
       <c r="F6">
-        <v>0.9723569963018927</v>
+        <v>1.043062665356075</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040817927552874</v>
+        <v>1.055844033260446</v>
       </c>
       <c r="J6">
-        <v>1.010204396688543</v>
+        <v>1.041113909371767</v>
       </c>
       <c r="K6">
-        <v>1.020172374130132</v>
+        <v>1.049569524392934</v>
       </c>
       <c r="L6">
-        <v>1.008059765816375</v>
+        <v>1.035115179295453</v>
       </c>
       <c r="M6">
-        <v>0.9825284369935645</v>
+        <v>1.052419795057821</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050059079807421</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046134214017441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9895688565131958</v>
+        <v>1.021717228842687</v>
       </c>
       <c r="D7">
-        <v>1.009357829289343</v>
+        <v>1.039456398046744</v>
       </c>
       <c r="E7">
-        <v>0.9969637476613433</v>
+        <v>1.024725718115042</v>
       </c>
       <c r="F7">
-        <v>0.9699788414941597</v>
+        <v>1.042286314934789</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0404250097099</v>
+        <v>1.05556220447847</v>
       </c>
       <c r="J7">
-        <v>1.009237018950012</v>
+        <v>1.040575366559463</v>
       </c>
       <c r="K7">
-        <v>1.019341646469462</v>
+        <v>1.04909799590377</v>
       </c>
       <c r="L7">
-        <v>1.007095942398035</v>
+        <v>1.034531705929646</v>
       </c>
       <c r="M7">
-        <v>0.9804504997894713</v>
+        <v>1.051896984979256</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049645315962001</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045804973166815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9829638488205478</v>
+        <v>1.017151011288718</v>
       </c>
       <c r="D8">
-        <v>1.004643254198637</v>
+        <v>1.036368826721501</v>
       </c>
       <c r="E8">
-        <v>0.991665842187342</v>
+        <v>1.021142602601049</v>
       </c>
       <c r="F8">
-        <v>0.9597568245885827</v>
+        <v>1.038992079186383</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038704626424803</v>
+        <v>1.054338791938477</v>
       </c>
       <c r="J8">
-        <v>1.005078045917794</v>
+        <v>1.038273133047163</v>
       </c>
       <c r="K8">
-        <v>1.015760694865856</v>
+        <v>1.047077702910306</v>
       </c>
       <c r="L8">
-        <v>1.002959901071467</v>
+        <v>1.032043601665174</v>
       </c>
       <c r="M8">
-        <v>0.9715109929842188</v>
+        <v>1.049668563175386</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.047881689432941</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04438101259998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9706397828340945</v>
+        <v>1.008787999645685</v>
       </c>
       <c r="D9">
-        <v>0.995846468396707</v>
+        <v>1.030735878710912</v>
       </c>
       <c r="E9">
-        <v>0.9818339935259361</v>
+        <v>1.014622824062613</v>
       </c>
       <c r="F9">
-        <v>0.9405432135264161</v>
+        <v>1.033010925508728</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035360451760741</v>
+        <v>1.052021114486703</v>
       </c>
       <c r="J9">
-        <v>0.9972736975228464</v>
+        <v>1.03403420246802</v>
       </c>
       <c r="K9">
-        <v>1.00900729513447</v>
+        <v>1.043349220948224</v>
       </c>
       <c r="L9">
-        <v>0.9952288419219841</v>
+        <v>1.027483028941071</v>
       </c>
       <c r="M9">
-        <v>0.9546806909743601</v>
+        <v>1.045590201836058</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044653965431467</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041741612905504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9618964237483737</v>
+        <v>1.003050281694268</v>
       </c>
       <c r="D10">
-        <v>0.9896115800385895</v>
+        <v>1.026919563873626</v>
       </c>
       <c r="E10">
-        <v>0.9748989054790618</v>
+        <v>1.010189995482554</v>
       </c>
       <c r="F10">
-        <v>0.9267746904126738</v>
+        <v>1.029026676795324</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03290111928162</v>
+        <v>1.050408025417076</v>
       </c>
       <c r="J10">
-        <v>0.9917078611684926</v>
+        <v>1.031143398579047</v>
       </c>
       <c r="K10">
-        <v>1.004170968489327</v>
+        <v>1.040819212263558</v>
       </c>
       <c r="L10">
-        <v>0.9897366559942293</v>
+        <v>1.024377671925079</v>
       </c>
       <c r="M10">
-        <v>0.9426051220879248</v>
+        <v>1.042890903708541</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042568845370202</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039969465182235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9579684183624037</v>
+        <v>1.000943540616631</v>
       </c>
       <c r="D11">
-        <v>0.9868134011031702</v>
+        <v>1.025713025966623</v>
       </c>
       <c r="E11">
-        <v>0.9717937591061612</v>
+        <v>1.008633255645755</v>
       </c>
       <c r="F11">
-        <v>0.9205453669659144</v>
+        <v>1.028205386022644</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031776647167159</v>
+        <v>1.049969165794918</v>
       </c>
       <c r="J11">
-        <v>0.9892006815919092</v>
+        <v>1.030277119807821</v>
       </c>
       <c r="K11">
-        <v>1.001988356878049</v>
+        <v>1.04016579447992</v>
       </c>
       <c r="L11">
-        <v>0.9872679553184792</v>
+        <v>1.023394177463782</v>
       </c>
       <c r="M11">
-        <v>0.9371391729891914</v>
+        <v>1.042614296498829</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042783993955451</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039540119832027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9564864047466487</v>
+        <v>1.000296600336341</v>
       </c>
       <c r="D12">
-        <v>0.9857582293938048</v>
+        <v>1.025416351944267</v>
       </c>
       <c r="E12">
-        <v>0.9706238668712286</v>
+        <v>1.00818288384502</v>
       </c>
       <c r="F12">
-        <v>0.9181874021121943</v>
+        <v>1.028221250109152</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031349533925137</v>
+        <v>1.049895795951717</v>
       </c>
       <c r="J12">
-        <v>0.988253743918848</v>
+        <v>1.030088412805858</v>
       </c>
       <c r="K12">
-        <v>1.001163461928837</v>
+        <v>1.040072293721875</v>
       </c>
       <c r="L12">
-        <v>0.9863363701919041</v>
+        <v>1.023154974115202</v>
       </c>
       <c r="M12">
-        <v>0.9350698751394243</v>
+        <v>1.042827037653218</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043277142804403</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039474012527678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9568053696704985</v>
+        <v>1.000745006033281</v>
       </c>
       <c r="D13">
-        <v>0.9859852999683772</v>
+        <v>1.025818725499747</v>
       </c>
       <c r="E13">
-        <v>0.9708755793100736</v>
+        <v>1.008565448746375</v>
       </c>
       <c r="F13">
-        <v>0.9186952588608319</v>
+        <v>1.028907501964567</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031441586469349</v>
+        <v>1.050114225480435</v>
       </c>
       <c r="J13">
-        <v>0.9884575923422848</v>
+        <v>1.0304253634673</v>
       </c>
       <c r="K13">
-        <v>1.001341061517973</v>
+        <v>1.040425018854291</v>
       </c>
       <c r="L13">
-        <v>0.9865368762579633</v>
+        <v>1.023486878612465</v>
       </c>
       <c r="M13">
-        <v>0.935515570436905</v>
+        <v>1.043458824898332</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044052184781359</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039720920667331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.957846393470575</v>
+        <v>1.001554942199462</v>
       </c>
       <c r="D14">
-        <v>0.9867265089322892</v>
+        <v>1.026417144542762</v>
       </c>
       <c r="E14">
-        <v>0.9716973991799184</v>
+        <v>1.009210339212393</v>
       </c>
       <c r="F14">
-        <v>0.9203513814388032</v>
+        <v>1.029690473832429</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03174153730717</v>
+        <v>1.050398905234075</v>
       </c>
       <c r="J14">
-        <v>0.9891227334753607</v>
+        <v>1.030898738351215</v>
       </c>
       <c r="K14">
-        <v>1.001920465470626</v>
+        <v>1.040873833798949</v>
       </c>
       <c r="L14">
-        <v>0.9871912541908529</v>
+        <v>1.023977371296108</v>
       </c>
       <c r="M14">
-        <v>0.9369689408719298</v>
+        <v>1.044089646286697</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.044723502028448</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.040039659478573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9584847059601077</v>
+        <v>1.001996880431964</v>
       </c>
       <c r="D15">
-        <v>0.9871810658748796</v>
+        <v>1.026724548593879</v>
       </c>
       <c r="E15">
-        <v>0.9722015263162439</v>
+        <v>1.00955498690395</v>
       </c>
       <c r="F15">
-        <v>0.9213658007704676</v>
+        <v>1.030044263993116</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031925081359348</v>
+        <v>1.050537436239759</v>
       </c>
       <c r="J15">
-        <v>0.9895304398912371</v>
+        <v>1.03113623454779</v>
       </c>
       <c r="K15">
-        <v>1.00227554871255</v>
+        <v>1.041090254233669</v>
       </c>
       <c r="L15">
-        <v>0.9875924717273888</v>
+        <v>1.024227992827873</v>
       </c>
       <c r="M15">
-        <v>0.9378591339691713</v>
+        <v>1.044352083160805</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.044968337047874</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.040198507264733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9621539838660995</v>
+        <v>1.004341598107853</v>
       </c>
       <c r="D16">
-        <v>0.9897951279384187</v>
+        <v>1.028270795382314</v>
       </c>
       <c r="E16">
-        <v>0.9751027353234796</v>
+        <v>1.01135417732528</v>
       </c>
       <c r="F16">
-        <v>0.9271821508427834</v>
+        <v>1.031634402304534</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032974451610629</v>
+        <v>1.051197351408844</v>
       </c>
       <c r="J16">
-        <v>0.9918721195975586</v>
+        <v>1.032307776042267</v>
       </c>
       <c r="K16">
-        <v>1.00431388417835</v>
+        <v>1.042112471494883</v>
       </c>
       <c r="L16">
-        <v>0.9898985052715559</v>
+        <v>1.025485325993923</v>
       </c>
       <c r="M16">
-        <v>0.9429626046942534</v>
+        <v>1.04541997833426</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.045773825122648</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040924388602559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.964416489837406</v>
+        <v>1.005718624850082</v>
       </c>
       <c r="D17">
-        <v>0.9914078240225689</v>
+        <v>1.029145438588002</v>
       </c>
       <c r="E17">
-        <v>0.9768944516286043</v>
+        <v>1.012400204319891</v>
       </c>
       <c r="F17">
-        <v>0.9307563669027331</v>
+        <v>1.032440400446152</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03361642039414</v>
+        <v>1.0515524701668</v>
       </c>
       <c r="J17">
-        <v>0.9933142716000379</v>
+        <v>1.032958804736567</v>
       </c>
       <c r="K17">
-        <v>1.005568201295615</v>
+        <v>1.042661038100782</v>
       </c>
       <c r="L17">
-        <v>0.9913201077290683</v>
+        <v>1.026194251069433</v>
       </c>
       <c r="M17">
-        <v>0.9460981384749956</v>
+        <v>1.045902574982102</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046026746406969</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.041314811820766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9657225825287727</v>
+        <v>1.006376128747205</v>
       </c>
       <c r="D18">
-        <v>0.9923390592915817</v>
+        <v>1.029496197554984</v>
       </c>
       <c r="E18">
-        <v>0.9779297516561209</v>
+        <v>1.012877433969325</v>
       </c>
       <c r="F18">
-        <v>0.9328156318980907</v>
+        <v>1.032593056955239</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033985158248189</v>
+        <v>1.051663849921587</v>
       </c>
       <c r="J18">
-        <v>0.994146160318426</v>
+        <v>1.033200399063472</v>
       </c>
       <c r="K18">
-        <v>1.006291353954827</v>
+        <v>1.042824497122898</v>
       </c>
       <c r="L18">
-        <v>0.9921406406769986</v>
+        <v>1.026477527602289</v>
       </c>
       <c r="M18">
-        <v>0.9479044105147418</v>
+        <v>1.045871947519904</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045765881650396</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041418823568478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.966165668223217</v>
+        <v>1.00638459262628</v>
       </c>
       <c r="D19">
-        <v>0.9926550172114204</v>
+        <v>1.029378805352622</v>
       </c>
       <c r="E19">
-        <v>0.9782811365662195</v>
+        <v>1.012842055403573</v>
       </c>
       <c r="F19">
-        <v>0.9335135715198155</v>
+        <v>1.032150475417912</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034109933408725</v>
+        <v>1.051559528100621</v>
       </c>
       <c r="J19">
-        <v>0.9944282668756865</v>
+        <v>1.033075318409075</v>
       </c>
       <c r="K19">
-        <v>1.006536519151761</v>
+        <v>1.042647054062563</v>
       </c>
       <c r="L19">
-        <v>0.9924189801630493</v>
+        <v>1.02637936506059</v>
       </c>
       <c r="M19">
-        <v>0.9485165592965151</v>
+        <v>1.045374708097313</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.045048793887666</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.041299719521905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9641751611418695</v>
+        <v>1.004563564339716</v>
       </c>
       <c r="D20">
-        <v>0.9912357786570108</v>
+        <v>1.027940400060645</v>
       </c>
       <c r="E20">
-        <v>0.9767032366810821</v>
+        <v>1.011361177979548</v>
       </c>
       <c r="F20">
-        <v>0.9303755532448594</v>
+        <v>1.030083946937248</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033548137342338</v>
+        <v>1.050848971242921</v>
       </c>
       <c r="J20">
-        <v>0.9931605109983075</v>
+        <v>1.031919694665231</v>
       </c>
       <c r="K20">
-        <v>1.005434507057991</v>
+        <v>1.041509120983399</v>
       </c>
       <c r="L20">
-        <v>0.9911684862138208</v>
+        <v>1.025207153828726</v>
       </c>
       <c r="M20">
-        <v>0.9457640892668296</v>
+        <v>1.043617658403585</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043133494939769</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040499063835775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9575404862169263</v>
+        <v>1.000176147814418</v>
       </c>
       <c r="D21">
-        <v>0.9865086863312524</v>
+        <v>1.02499154961554</v>
       </c>
       <c r="E21">
-        <v>0.9714558591115577</v>
+        <v>1.007970801801742</v>
       </c>
       <c r="F21">
-        <v>0.9198649466785974</v>
+        <v>1.026927254598534</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031653473861286</v>
+        <v>1.049566791825134</v>
       </c>
       <c r="J21">
-        <v>0.9889273074419193</v>
+        <v>1.029666506206093</v>
       </c>
       <c r="K21">
-        <v>1.00175024439445</v>
+        <v>1.039514429347035</v>
       </c>
       <c r="L21">
-        <v>0.9869989677872727</v>
+        <v>1.022802722209288</v>
       </c>
       <c r="M21">
-        <v>0.9365420654298059</v>
+        <v>1.041415829721652</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.041350241195053</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.039091966851878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9532351161219835</v>
+        <v>0.9973820984314872</v>
       </c>
       <c r="D22">
-        <v>0.9834445543866714</v>
+        <v>1.023125054782478</v>
       </c>
       <c r="E22">
-        <v>0.9680604811316973</v>
+        <v>1.005821221832912</v>
       </c>
       <c r="F22">
-        <v>0.9129989143623753</v>
+        <v>1.024964043212979</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030407358681565</v>
+        <v>1.048747123334545</v>
       </c>
       <c r="J22">
-        <v>0.9861745023187507</v>
+        <v>1.028237625308692</v>
       </c>
       <c r="K22">
-        <v>0.9993512701017193</v>
+        <v>1.038251910295561</v>
       </c>
       <c r="L22">
-        <v>0.9842923774065846</v>
+        <v>1.021278234561388</v>
       </c>
       <c r="M22">
-        <v>0.9305161547868057</v>
+        <v>1.040056665501518</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040274554309817</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038185891519739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9555307590531124</v>
+        <v>0.9988585584259808</v>
       </c>
       <c r="D23">
-        <v>0.9850780003216639</v>
+        <v>1.024105504514092</v>
       </c>
       <c r="E23">
-        <v>0.9698699657391494</v>
+        <v>1.006954834131872</v>
       </c>
       <c r="F23">
-        <v>0.9166646012891506</v>
+        <v>1.025998749105064</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031073325143772</v>
+        <v>1.049177107255161</v>
       </c>
       <c r="J23">
-        <v>0.9876428520729363</v>
+        <v>1.028988464458003</v>
       </c>
       <c r="K23">
-        <v>1.000631158018873</v>
+        <v>1.038911972051343</v>
       </c>
       <c r="L23">
-        <v>0.9857356167544046</v>
+        <v>1.022080112933679</v>
       </c>
       <c r="M23">
-        <v>0.9337334300181113</v>
+        <v>1.040770872853741</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.04083980149809</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038642996778212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9642842490643396</v>
+        <v>1.004578617720832</v>
       </c>
       <c r="D24">
-        <v>0.9913135475975361</v>
+        <v>1.027923832478772</v>
       </c>
       <c r="E24">
-        <v>0.9767896686170022</v>
+        <v>1.011364482308338</v>
       </c>
       <c r="F24">
-        <v>0.9305477051020499</v>
+        <v>1.030028961166559</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033579009129134</v>
+        <v>1.05083119787158</v>
       </c>
       <c r="J24">
-        <v>0.9932300174387069</v>
+        <v>1.031901549607323</v>
       </c>
       <c r="K24">
-        <v>1.005494943836386</v>
+        <v>1.0414776995056</v>
       </c>
       <c r="L24">
-        <v>0.9912370241501428</v>
+        <v>1.025194921470462</v>
       </c>
       <c r="M24">
-        <v>0.9459151014143483</v>
+        <v>1.043548487095789</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043038092562245</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.040449611564452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9739135200438044</v>
+        <v>1.011003824354769</v>
       </c>
       <c r="D25">
-        <v>0.998182644234151</v>
+        <v>1.032233795962543</v>
       </c>
       <c r="E25">
-        <v>0.9844391251341523</v>
+        <v>1.016347247124739</v>
       </c>
       <c r="F25">
-        <v>0.9456673134408325</v>
+        <v>1.034592105074607</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036263959158266</v>
+        <v>1.052650336023444</v>
       </c>
       <c r="J25">
-        <v>0.9993518604622647</v>
+        <v>1.035166457103322</v>
       </c>
       <c r="K25">
-        <v>1.010809237973111</v>
+        <v>1.044351513637388</v>
       </c>
       <c r="L25">
-        <v>0.9972839042688824</v>
+        <v>1.028696984723424</v>
       </c>
       <c r="M25">
-        <v>0.959172010582293</v>
+        <v>1.046676148634572</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045513414091923</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042478676589905</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015942154055546</v>
+        <v>1.014740652568499</v>
       </c>
       <c r="D2">
-        <v>1.035545586562362</v>
+        <v>1.033798060398416</v>
       </c>
       <c r="E2">
-        <v>1.020195036365074</v>
+        <v>1.019171388297921</v>
       </c>
       <c r="F2">
-        <v>1.03812095739207</v>
+        <v>1.03687113701099</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054004020980727</v>
+        <v>1.053041262912323</v>
       </c>
       <c r="J2">
-        <v>1.037656273427779</v>
+        <v>1.036489237890842</v>
       </c>
       <c r="K2">
-        <v>1.046530967748884</v>
+        <v>1.044805790009131</v>
       </c>
       <c r="L2">
-        <v>1.031380012991667</v>
+        <v>1.030369943239571</v>
       </c>
       <c r="M2">
-        <v>1.049073574417583</v>
+        <v>1.047839629006479</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04741080033242</v>
+        <v>1.046434223873761</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043971696107395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042760576405166</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023903792449992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019457449923852</v>
+        <v>1.018151520594423</v>
       </c>
       <c r="D3">
-        <v>1.037920018424221</v>
+        <v>1.036023721192461</v>
       </c>
       <c r="E3">
-        <v>1.022948599372634</v>
+        <v>1.021831281445806</v>
       </c>
       <c r="F3">
-        <v>1.040650950347604</v>
+        <v>1.03929531593657</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054955090458447</v>
+        <v>1.053908280014203</v>
       </c>
       <c r="J3">
-        <v>1.039431381986297</v>
+        <v>1.038159297126803</v>
       </c>
       <c r="K3">
-        <v>1.048089649380817</v>
+        <v>1.046215521107496</v>
       </c>
       <c r="L3">
-        <v>1.033296033035301</v>
+        <v>1.032192243996673</v>
       </c>
       <c r="M3">
-        <v>1.050788830374056</v>
+        <v>1.049448931337823</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048768296319596</v>
+        <v>1.047707867295439</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045071157716922</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043754443431741</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024183975155946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021694393718935</v>
+        <v>1.020322602766545</v>
       </c>
       <c r="D4">
-        <v>1.03943477637229</v>
+        <v>1.037444203336848</v>
       </c>
       <c r="E4">
-        <v>1.024706343029107</v>
+        <v>1.023529918683484</v>
       </c>
       <c r="F4">
-        <v>1.042267715744419</v>
+        <v>1.040845133081107</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055551328511746</v>
+        <v>1.05445117840039</v>
       </c>
       <c r="J4">
-        <v>1.04055897641098</v>
+        <v>1.039220363156847</v>
       </c>
       <c r="K4">
-        <v>1.049079461060792</v>
+        <v>1.047110775353638</v>
       </c>
       <c r="L4">
-        <v>1.034515455431598</v>
+        <v>1.033352416319272</v>
       </c>
       <c r="M4">
-        <v>1.051881427821338</v>
+        <v>1.050474372421931</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049633003668135</v>
+        <v>1.048519426704925</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045771917737999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04438842765778</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024359628313712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022629177516339</v>
+        <v>1.021229986094693</v>
       </c>
       <c r="D5">
-        <v>1.040070529328435</v>
+        <v>1.038040698647835</v>
       </c>
       <c r="E5">
-        <v>1.025442601598271</v>
+        <v>1.024241567923182</v>
       </c>
       <c r="F5">
-        <v>1.042945576567346</v>
+        <v>1.041495130493869</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055799772355298</v>
+        <v>1.054677380939431</v>
       </c>
       <c r="J5">
-        <v>1.041031168082145</v>
+        <v>1.039664819054089</v>
       </c>
       <c r="K5">
-        <v>1.049495149656355</v>
+        <v>1.047487051786013</v>
       </c>
       <c r="L5">
-        <v>1.035026203387814</v>
+        <v>1.03383847098375</v>
       </c>
       <c r="M5">
-        <v>1.05233959176503</v>
+        <v>1.050904559963775</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049995605103303</v>
+        <v>1.048859887489742</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046072952311848</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044662307518064</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024433428582698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022789457000997</v>
+        <v>1.021385559450825</v>
       </c>
       <c r="D6">
-        <v>1.040181867314539</v>
+        <v>1.038145367730458</v>
       </c>
       <c r="E6">
-        <v>1.025569432721176</v>
+        <v>1.02436415406789</v>
       </c>
       <c r="F6">
-        <v>1.043062665356075</v>
+        <v>1.04160747593953</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055844033260446</v>
+        <v>1.054717847933918</v>
       </c>
       <c r="J6">
-        <v>1.041113909371767</v>
+        <v>1.039742797387228</v>
       </c>
       <c r="K6">
-        <v>1.049569524392934</v>
+        <v>1.04755473045106</v>
       </c>
       <c r="L6">
-        <v>1.035115179295453</v>
+        <v>1.033923187775532</v>
       </c>
       <c r="M6">
-        <v>1.052419795057821</v>
+        <v>1.050980000238156</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050059079807421</v>
+        <v>1.048919592724333</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046134214017441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044719704858955</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024447309673893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021717228842687</v>
+        <v>1.020344711236742</v>
       </c>
       <c r="D7">
-        <v>1.039456398046744</v>
+        <v>1.037465008552843</v>
       </c>
       <c r="E7">
-        <v>1.024725718115042</v>
+        <v>1.023548590450186</v>
       </c>
       <c r="F7">
-        <v>1.042286314934789</v>
+        <v>1.040863120353553</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05556220447847</v>
+        <v>1.054461550706188</v>
       </c>
       <c r="J7">
-        <v>1.040575366559463</v>
+        <v>1.039236030183722</v>
       </c>
       <c r="K7">
-        <v>1.04909799590377</v>
+        <v>1.047128494332324</v>
       </c>
       <c r="L7">
-        <v>1.034531705929646</v>
+        <v>1.033367966414171</v>
       </c>
       <c r="M7">
-        <v>1.051896984979256</v>
+        <v>1.05048931850769</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049645315962001</v>
+        <v>1.048531255399898</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045804973166815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044422908401491</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024364830403542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017151011288718</v>
+        <v>1.015913336795869</v>
       </c>
       <c r="D8">
-        <v>1.036368826721501</v>
+        <v>1.034570187503433</v>
       </c>
       <c r="E8">
-        <v>1.021142602601049</v>
+        <v>1.02008644310417</v>
       </c>
       <c r="F8">
-        <v>1.038992079186383</v>
+        <v>1.037705834358407</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054338791938477</v>
+        <v>1.053347112198343</v>
       </c>
       <c r="J8">
-        <v>1.038273133047163</v>
+        <v>1.037069786261279</v>
       </c>
       <c r="K8">
-        <v>1.047077702910306</v>
+        <v>1.045301391729614</v>
       </c>
       <c r="L8">
-        <v>1.032043601665174</v>
+        <v>1.031001034680342</v>
       </c>
       <c r="M8">
-        <v>1.049668563175386</v>
+        <v>1.048398175563708</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047881689432941</v>
+        <v>1.04687627229142</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04438101259998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043136009807727</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024004901102529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008787999645685</v>
+        <v>1.007802556411879</v>
       </c>
       <c r="D9">
-        <v>1.030735878710912</v>
+        <v>1.029293428172697</v>
       </c>
       <c r="E9">
-        <v>1.014622824062613</v>
+        <v>1.013792667309407</v>
       </c>
       <c r="F9">
-        <v>1.033010925508728</v>
+        <v>1.031978728313317</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052021114486703</v>
+        <v>1.051230276843801</v>
       </c>
       <c r="J9">
-        <v>1.03403420246802</v>
+        <v>1.033082763319138</v>
       </c>
       <c r="K9">
-        <v>1.043349220948224</v>
+        <v>1.041928468587638</v>
       </c>
       <c r="L9">
-        <v>1.027483028941071</v>
+        <v>1.02666586258581</v>
       </c>
       <c r="M9">
-        <v>1.045590201836058</v>
+        <v>1.044573436786442</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044653965431467</v>
+        <v>1.043849268226539</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041741612905504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040747728100994</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023319816060221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003050281694268</v>
+        <v>1.002237402161429</v>
       </c>
       <c r="D10">
-        <v>1.026919563873626</v>
+        <v>1.025719709314856</v>
       </c>
       <c r="E10">
-        <v>1.010189995482554</v>
+        <v>1.009513589082206</v>
       </c>
       <c r="F10">
-        <v>1.029026676795324</v>
+        <v>1.028168052092988</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050408025417076</v>
+        <v>1.049753253872589</v>
       </c>
       <c r="J10">
-        <v>1.031143398579047</v>
+        <v>1.030362530330011</v>
       </c>
       <c r="K10">
-        <v>1.040819212263558</v>
+        <v>1.039639611683326</v>
       </c>
       <c r="L10">
-        <v>1.024377671925079</v>
+        <v>1.023713171318575</v>
       </c>
       <c r="M10">
-        <v>1.042890903708541</v>
+        <v>1.042046690258881</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042568845370202</v>
+        <v>1.041900749905173</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039969465182235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039147769964331</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022850118471119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000943540616631</v>
+        <v>1.000159017968729</v>
       </c>
       <c r="D11">
-        <v>1.025713025966623</v>
+        <v>1.024568190853848</v>
       </c>
       <c r="E11">
-        <v>1.008633255645755</v>
+        <v>1.007978372304283</v>
       </c>
       <c r="F11">
-        <v>1.028205386022644</v>
+        <v>1.027385041894804</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049969165794918</v>
+        <v>1.049342727320196</v>
       </c>
       <c r="J11">
-        <v>1.030277119807821</v>
+        <v>1.029525183103508</v>
       </c>
       <c r="K11">
-        <v>1.04016579447992</v>
+        <v>1.039041197787482</v>
       </c>
       <c r="L11">
-        <v>1.023394177463782</v>
+        <v>1.022751380507528</v>
       </c>
       <c r="M11">
-        <v>1.042614296498829</v>
+        <v>1.041808357509934</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042783993955451</v>
+        <v>1.042146506078306</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039540119832027</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038760539249145</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.0227763361523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000296600336341</v>
+        <v>0.9995055554140382</v>
       </c>
       <c r="D12">
-        <v>1.025416351944267</v>
+        <v>1.024273667262443</v>
       </c>
       <c r="E12">
-        <v>1.00818288384502</v>
+        <v>1.007519350699888</v>
       </c>
       <c r="F12">
-        <v>1.028221250109152</v>
+        <v>1.027401645323877</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049895795951717</v>
+        <v>1.049268795891969</v>
       </c>
       <c r="J12">
-        <v>1.030088412805858</v>
+        <v>1.029330855773986</v>
       </c>
       <c r="K12">
-        <v>1.040072293721875</v>
+        <v>1.038950143662048</v>
       </c>
       <c r="L12">
-        <v>1.023154974115202</v>
+        <v>1.022503895907238</v>
       </c>
       <c r="M12">
-        <v>1.042827037653218</v>
+        <v>1.042022051407354</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043277142804403</v>
+        <v>1.042640622197728</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039474012527678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038696162981348</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022792863467425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000745006033281</v>
+        <v>0.9999194791222807</v>
       </c>
       <c r="D13">
-        <v>1.025818725499747</v>
+        <v>1.024636851500957</v>
       </c>
       <c r="E13">
-        <v>1.008565448746375</v>
+        <v>1.007868879590774</v>
       </c>
       <c r="F13">
-        <v>1.028907501964567</v>
+        <v>1.028059274477513</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050114225480435</v>
+        <v>1.049463945020094</v>
       </c>
       <c r="J13">
-        <v>1.0304253634673</v>
+        <v>1.029634613622173</v>
       </c>
       <c r="K13">
-        <v>1.040425018854291</v>
+        <v>1.039264292338707</v>
       </c>
       <c r="L13">
-        <v>1.023486878612465</v>
+        <v>1.022803328308022</v>
       </c>
       <c r="M13">
-        <v>1.043458824898332</v>
+        <v>1.042625650476535</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044052184781359</v>
+        <v>1.043393539457265</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039720920667331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038915549127197</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022887687883014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001554942199462</v>
+        <v>1.000693202727254</v>
       </c>
       <c r="D14">
-        <v>1.026417144542762</v>
+        <v>1.025189597273318</v>
       </c>
       <c r="E14">
-        <v>1.009210339212393</v>
+        <v>1.008480164058414</v>
       </c>
       <c r="F14">
-        <v>1.029690473832429</v>
+        <v>1.0288093266092</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050398905234075</v>
+        <v>1.049722353769039</v>
       </c>
       <c r="J14">
-        <v>1.030898738351215</v>
+        <v>1.030072784947925</v>
       </c>
       <c r="K14">
-        <v>1.040873833798949</v>
+        <v>1.039667979019151</v>
       </c>
       <c r="L14">
-        <v>1.023977371296108</v>
+        <v>1.023260670944027</v>
       </c>
       <c r="M14">
-        <v>1.044089646286697</v>
+        <v>1.043223935358347</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044723502028448</v>
+        <v>1.04403922760776</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040039659478573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.0392025149522</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022989437081754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001996880431964</v>
+        <v>1.001119601489446</v>
       </c>
       <c r="D15">
-        <v>1.026724548593879</v>
+        <v>1.025476148855555</v>
       </c>
       <c r="E15">
-        <v>1.00955498690395</v>
+        <v>1.008810721125924</v>
       </c>
       <c r="F15">
-        <v>1.030044263993116</v>
+        <v>1.029148184138916</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050537436239759</v>
+        <v>1.049849091161905</v>
       </c>
       <c r="J15">
-        <v>1.03113623454779</v>
+        <v>1.030295070343574</v>
       </c>
       <c r="K15">
-        <v>1.041090254233669</v>
+        <v>1.039863748737015</v>
       </c>
       <c r="L15">
-        <v>1.024227992827873</v>
+        <v>1.023497355955973</v>
       </c>
       <c r="M15">
-        <v>1.044352083160805</v>
+        <v>1.043471580774</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044968337047874</v>
+        <v>1.04427238940935</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040198507264733</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039347332714773</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023034208570935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004341598107853</v>
+        <v>1.003397873028093</v>
       </c>
       <c r="D16">
-        <v>1.028270795382314</v>
+        <v>1.026926705512442</v>
       </c>
       <c r="E16">
-        <v>1.01135417732528</v>
+        <v>1.010551453881843</v>
       </c>
       <c r="F16">
-        <v>1.031634402304534</v>
+        <v>1.030670246117188</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051197351408844</v>
+        <v>1.05045580429907</v>
       </c>
       <c r="J16">
-        <v>1.032307776042267</v>
+        <v>1.031400968245662</v>
       </c>
       <c r="K16">
-        <v>1.042112471494883</v>
+        <v>1.040790931601434</v>
       </c>
       <c r="L16">
-        <v>1.025485325993923</v>
+        <v>1.02469665057122</v>
       </c>
       <c r="M16">
-        <v>1.04541997833426</v>
+        <v>1.044471854653597</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045773825122648</v>
+        <v>1.045024408487961</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040924388602559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.040006320524026</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023223185007092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005718624850082</v>
+        <v>1.004742670085352</v>
       </c>
       <c r="D17">
-        <v>1.029145438588002</v>
+        <v>1.027751747848786</v>
       </c>
       <c r="E17">
-        <v>1.012400204319891</v>
+        <v>1.011569956405822</v>
       </c>
       <c r="F17">
-        <v>1.032440400446152</v>
+        <v>1.031441118001419</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.0515524701668</v>
+        <v>1.050783732333651</v>
       </c>
       <c r="J17">
-        <v>1.032958804736567</v>
+        <v>1.032019806610242</v>
       </c>
       <c r="K17">
-        <v>1.042661038100782</v>
+        <v>1.041290077353249</v>
       </c>
       <c r="L17">
-        <v>1.026194251069433</v>
+        <v>1.025378118613765</v>
       </c>
       <c r="M17">
-        <v>1.045902574982102</v>
+        <v>1.044919448744769</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046026746406969</v>
+        <v>1.045249586108351</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041314811820766</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.04036204901856</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023314104293552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006376128747205</v>
+        <v>1.005396622903009</v>
       </c>
       <c r="D18">
-        <v>1.029496197554984</v>
+        <v>1.028090397601701</v>
       </c>
       <c r="E18">
-        <v>1.012877433969325</v>
+        <v>1.01204590691113</v>
       </c>
       <c r="F18">
-        <v>1.032593056955239</v>
+        <v>1.031585501782989</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051663849921587</v>
+        <v>1.05088934094298</v>
       </c>
       <c r="J18">
-        <v>1.033200399063472</v>
+        <v>1.032257291274443</v>
       </c>
       <c r="K18">
-        <v>1.042824497122898</v>
+        <v>1.0414412520864</v>
       </c>
       <c r="L18">
-        <v>1.026477527602289</v>
+        <v>1.025659902069499</v>
       </c>
       <c r="M18">
-        <v>1.045871947519904</v>
+        <v>1.044880425714992</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045765881650396</v>
+        <v>1.044981922546292</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041418823568478</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040456237113361</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023320805829076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00638459262628</v>
+        <v>1.005428096913061</v>
       </c>
       <c r="D19">
-        <v>1.029378805352622</v>
+        <v>1.027995720414989</v>
       </c>
       <c r="E19">
-        <v>1.012842055403573</v>
+        <v>1.012033447962143</v>
       </c>
       <c r="F19">
-        <v>1.032150475417912</v>
+        <v>1.031159613162139</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051559528100621</v>
+        <v>1.050799180072536</v>
       </c>
       <c r="J19">
-        <v>1.033075318409075</v>
+        <v>1.032154156208652</v>
       </c>
       <c r="K19">
-        <v>1.042647054062563</v>
+        <v>1.0412860472748</v>
       </c>
       <c r="L19">
-        <v>1.02637936506059</v>
+        <v>1.025584204470849</v>
       </c>
       <c r="M19">
-        <v>1.045374708097313</v>
+        <v>1.04439954660785</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045048793887666</v>
+        <v>1.044277520560467</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041299719521905</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040353482897349</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023254943434651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004563564339716</v>
+        <v>1.003704063628869</v>
       </c>
       <c r="D20">
-        <v>1.027940400060645</v>
+        <v>1.026676178583499</v>
       </c>
       <c r="E20">
-        <v>1.011361177979548</v>
+        <v>1.010643062393143</v>
       </c>
       <c r="F20">
-        <v>1.030083946937248</v>
+        <v>1.029179087632234</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050848971242921</v>
+        <v>1.050157954438888</v>
       </c>
       <c r="J20">
-        <v>1.031919694665231</v>
+        <v>1.031092942787257</v>
       </c>
       <c r="K20">
-        <v>1.041509120983399</v>
+        <v>1.040265635528181</v>
       </c>
       <c r="L20">
-        <v>1.025207153828726</v>
+        <v>1.024501312872734</v>
       </c>
       <c r="M20">
-        <v>1.043617658403585</v>
+        <v>1.042727554844828</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043133494939769</v>
+        <v>1.042429074452333</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040499063835775</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039636311551487</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022983983599032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000176147814418</v>
+        <v>0.9994569410382532</v>
       </c>
       <c r="D21">
-        <v>1.02499154961554</v>
+        <v>1.023920325855631</v>
       </c>
       <c r="E21">
-        <v>1.007970801801742</v>
+        <v>1.007378137239632</v>
       </c>
       <c r="F21">
-        <v>1.026927254598534</v>
+        <v>1.02616097587612</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049566791825134</v>
+        <v>1.048984339058554</v>
       </c>
       <c r="J21">
-        <v>1.029666506206093</v>
+        <v>1.028977384883598</v>
       </c>
       <c r="K21">
-        <v>1.039514429347035</v>
+        <v>1.038462262207546</v>
       </c>
       <c r="L21">
-        <v>1.022802722209288</v>
+        <v>1.02222106390523</v>
       </c>
       <c r="M21">
-        <v>1.041415829721652</v>
+        <v>1.040663110932669</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041350241195053</v>
+        <v>1.04075451519793</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039091966851878</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038364816102341</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02259935572516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9973820984314872</v>
+        <v>0.9967514490223234</v>
       </c>
       <c r="D22">
-        <v>1.023125054782478</v>
+        <v>1.022175301633095</v>
       </c>
       <c r="E22">
-        <v>1.005821221832912</v>
+        <v>1.005307469940618</v>
       </c>
       <c r="F22">
-        <v>1.024964043212979</v>
+        <v>1.024285171444577</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048747123334545</v>
+        <v>1.048232842137139</v>
       </c>
       <c r="J22">
-        <v>1.028237625308692</v>
+        <v>1.027634889309573</v>
       </c>
       <c r="K22">
-        <v>1.038251910295561</v>
+        <v>1.037319899999846</v>
       </c>
       <c r="L22">
-        <v>1.021278234561388</v>
+        <v>1.020774512985742</v>
       </c>
       <c r="M22">
-        <v>1.040056665501518</v>
+        <v>1.039390412426843</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040274554309817</v>
+        <v>1.039747259314043</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038185891519739</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037542393258872</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02235464637685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9988585584259808</v>
+        <v>0.9981812766274751</v>
       </c>
       <c r="D23">
-        <v>1.024105504514092</v>
+        <v>1.023091536916788</v>
       </c>
       <c r="E23">
-        <v>1.006954834131872</v>
+        <v>1.006399623529337</v>
       </c>
       <c r="F23">
-        <v>1.025998749105064</v>
+        <v>1.02527370304207</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049177107255161</v>
+        <v>1.048626862361454</v>
       </c>
       <c r="J23">
-        <v>1.028988464458003</v>
+        <v>1.02834028268768</v>
       </c>
       <c r="K23">
-        <v>1.038911972051343</v>
+        <v>1.037916466030601</v>
       </c>
       <c r="L23">
-        <v>1.022080112933679</v>
+        <v>1.021535460557058</v>
       </c>
       <c r="M23">
-        <v>1.040770872853741</v>
+        <v>1.040058959761297</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.04083980149809</v>
+        <v>1.040276370063172</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038642996778212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037953657208967</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022481190128763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004578617720832</v>
+        <v>1.003722391950586</v>
       </c>
       <c r="D24">
-        <v>1.027923832478772</v>
+        <v>1.026662307031927</v>
       </c>
       <c r="E24">
-        <v>1.011364482308338</v>
+        <v>1.010649717957113</v>
       </c>
       <c r="F24">
-        <v>1.030028961166559</v>
+        <v>1.029126197503236</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05083119787158</v>
+        <v>1.050142009210802</v>
       </c>
       <c r="J24">
-        <v>1.031901549607323</v>
+        <v>1.031077900591838</v>
       </c>
       <c r="K24">
-        <v>1.0414776995056</v>
+        <v>1.040236840177775</v>
       </c>
       <c r="L24">
-        <v>1.025194921470462</v>
+        <v>1.024492358609457</v>
       </c>
       <c r="M24">
-        <v>1.043548487095789</v>
+        <v>1.042660428164414</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043038092562245</v>
+        <v>1.04233525558433</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040449611564452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039586036382598</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02297084232381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011003824354769</v>
+        <v>1.009950614246288</v>
       </c>
       <c r="D25">
-        <v>1.032233795962543</v>
+        <v>1.030696629671391</v>
       </c>
       <c r="E25">
-        <v>1.016347247124739</v>
+        <v>1.015456325118228</v>
       </c>
       <c r="F25">
-        <v>1.034592105074607</v>
+        <v>1.033492165895529</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052650336023444</v>
+        <v>1.051806074453455</v>
       </c>
       <c r="J25">
-        <v>1.035166457103322</v>
+        <v>1.034147679095033</v>
       </c>
       <c r="K25">
-        <v>1.044351513637388</v>
+        <v>1.042836401482779</v>
       </c>
       <c r="L25">
-        <v>1.028696984723424</v>
+        <v>1.027819347877116</v>
       </c>
       <c r="M25">
-        <v>1.046676148634572</v>
+        <v>1.045591891202277</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045513414091923</v>
+        <v>1.044655302443913</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042478676589905</v>
+        <v>1.041420884866459</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023508949846281</v>
       </c>
     </row>
   </sheetData>
